--- a/prototypes/post-run-analysis/GA/GA_final_table.xlsx
+++ b/prototypes/post-run-analysis/GA/GA_final_table.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D17DFC-C82B-4DEB-A7CD-364B7F6044D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E570DE-44C3-4E48-B73C-4C0B0F253E43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2790" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="36">
   <si>
     <t>Lactobacillus Murinus ASF361</t>
   </si>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>average</t>
+  </si>
+  <si>
+    <t>mapped reads</t>
+  </si>
+  <si>
+    <t>unmapped reads</t>
   </si>
 </sst>
 </file>
@@ -279,7 +285,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$64</c:f>
+              <c:f>Sheet1!$A$67</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -300,7 +306,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$63:$E$63</c:f>
+              <c:f>Sheet1!$B$66:$E$66</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -320,12 +326,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$64:$E$64</c:f>
+              <c:f>Sheet1!$B$67:$E$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>152303.66666666666</c:v>
+                  <c:v>119545.58333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>26542.416666666668</c:v>
@@ -350,7 +356,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$65</c:f>
+              <c:f>Sheet1!$A$68</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -371,7 +377,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$63:$E$63</c:f>
+              <c:f>Sheet1!$B$66:$E$66</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -391,12 +397,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$65:$E$65</c:f>
+              <c:f>Sheet1!$B$68:$E$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>19698.75</c:v>
+                  <c:v>13371.166666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9.6666666666666661</c:v>
@@ -421,7 +427,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$66</c:f>
+              <c:f>Sheet1!$A$69</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -442,7 +448,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$63:$E$63</c:f>
+              <c:f>Sheet1!$B$66:$E$66</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -462,12 +468,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$66:$E$66</c:f>
+              <c:f>Sheet1!$B$69:$E$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6927.166666666667</c:v>
+                  <c:v>4553.333333333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>10</c:v>
@@ -492,7 +498,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$67</c:f>
+              <c:f>Sheet1!$A$70</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -513,7 +519,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$63:$E$63</c:f>
+              <c:f>Sheet1!$B$66:$E$66</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -533,12 +539,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$67:$E$67</c:f>
+              <c:f>Sheet1!$B$70:$E$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>116.91666666666667</c:v>
+                  <c:v>68.083333333333329</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -563,7 +569,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$68</c:f>
+              <c:f>Sheet1!$A$71</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -584,7 +590,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$63:$E$63</c:f>
+              <c:f>Sheet1!$B$66:$E$66</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -604,12 +610,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$68:$E$68</c:f>
+              <c:f>Sheet1!$B$71:$E$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>934.33333333333337</c:v>
+                  <c:v>819.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -634,7 +640,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$69</c:f>
+              <c:f>Sheet1!$A$72</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -655,7 +661,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$63:$E$63</c:f>
+              <c:f>Sheet1!$B$66:$E$66</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -675,12 +681,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$69:$E$69</c:f>
+              <c:f>Sheet1!$B$72:$E$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>9263.75</c:v>
+                  <c:v>7454.916666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1420.6666666666667</c:v>
@@ -705,7 +711,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$70</c:f>
+              <c:f>Sheet1!$A$73</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -728,7 +734,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$63:$E$63</c:f>
+              <c:f>Sheet1!$B$66:$E$66</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -748,12 +754,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$70:$E$70</c:f>
+              <c:f>Sheet1!$B$73:$E$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>33779.833333333336</c:v>
+                  <c:v>26872.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5282.666666666667</c:v>
@@ -778,7 +784,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$71</c:f>
+              <c:f>Sheet1!$A$74</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -801,7 +807,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$63:$E$63</c:f>
+              <c:f>Sheet1!$B$66:$E$66</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -821,12 +827,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$71:$E$71</c:f>
+              <c:f>Sheet1!$B$74:$E$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>472581.41666666669</c:v>
+                  <c:v>397408</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>76169.416666666672</c:v>
@@ -1608,16 +1614,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>320208</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>72836</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>241767</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>84042</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>493059</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>156883</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1908,10 +1914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W71"/>
+  <dimension ref="A1:W74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T75" sqref="T75"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S42" sqref="S42:T51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1983,7 +1989,7 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>117438</v>
+        <v>67159</v>
       </c>
       <c r="C3">
         <v>4285</v>
@@ -1998,7 +2004,7 @@
         <v>6</v>
       </c>
       <c r="H3">
-        <v>137228</v>
+        <v>119289</v>
       </c>
       <c r="I3">
         <v>41209</v>
@@ -2014,7 +2020,7 @@
         <v>6</v>
       </c>
       <c r="N3">
-        <v>96428</v>
+        <v>86641</v>
       </c>
       <c r="O3">
         <v>2202</v>
@@ -2032,7 +2038,7 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>7557</v>
+        <v>3137</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2047,7 +2053,7 @@
         <v>7</v>
       </c>
       <c r="H4">
-        <v>12365</v>
+        <v>8182</v>
       </c>
       <c r="I4">
         <v>9</v>
@@ -2059,7 +2065,7 @@
         <v>7</v>
       </c>
       <c r="N4">
-        <v>35545</v>
+        <v>28214</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -2076,7 +2082,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>3456</v>
+        <v>1505</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2091,7 +2097,7 @@
         <v>8</v>
       </c>
       <c r="H5">
-        <v>1371</v>
+        <v>978</v>
       </c>
       <c r="I5">
         <v>37</v>
@@ -2103,7 +2109,7 @@
         <v>8</v>
       </c>
       <c r="N5">
-        <v>13310</v>
+        <v>9954</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -2120,7 +2126,7 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -2135,7 +2141,7 @@
         <v>9</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -2147,7 +2153,7 @@
         <v>9</v>
       </c>
       <c r="N6">
-        <v>340</v>
+        <v>252</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -2164,7 +2170,7 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -2191,7 +2197,7 @@
         <v>10</v>
       </c>
       <c r="N7">
-        <v>3340</v>
+        <v>3074</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -2208,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>2884</v>
+        <v>1611</v>
       </c>
       <c r="C8">
         <v>96</v>
@@ -2223,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5728</v>
+        <v>4897</v>
       </c>
       <c r="I8">
         <v>2810</v>
@@ -2238,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>17398</v>
+        <v>15604</v>
       </c>
       <c r="O8">
         <v>356</v>
@@ -2255,7 +2261,7 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>19670</v>
+        <v>11043</v>
       </c>
       <c r="C9">
         <v>772</v>
@@ -2270,7 +2276,7 @@
         <v>11</v>
       </c>
       <c r="H9">
-        <v>30621</v>
+        <v>27199</v>
       </c>
       <c r="I9">
         <v>16291</v>
@@ -2285,7 +2291,7 @@
         <v>11</v>
       </c>
       <c r="N9">
-        <v>11610</v>
+        <v>10511</v>
       </c>
       <c r="O9">
         <v>322</v>
@@ -2302,7 +2308,7 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>182634</v>
+        <v>103148</v>
       </c>
       <c r="C10">
         <v>9454</v>
@@ -2317,7 +2323,7 @@
         <v>12</v>
       </c>
       <c r="H10">
-        <v>577008</v>
+        <v>526030</v>
       </c>
       <c r="I10">
         <v>239309</v>
@@ -2329,7 +2335,7 @@
         <v>12</v>
       </c>
       <c r="N10">
-        <v>774544</v>
+        <v>715655</v>
       </c>
       <c r="O10">
         <v>5373</v>
@@ -2341,151 +2347,153 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M13" t="s">
-        <v>22</v>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11">
+        <v>187709</v>
+      </c>
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11">
+        <v>686600</v>
+      </c>
+      <c r="M11" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11">
+        <v>869905</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12">
+        <v>2058585</v>
+      </c>
+      <c r="G12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12">
+        <v>2244751</v>
+      </c>
+      <c r="M12" t="s">
+        <v>35</v>
+      </c>
+      <c r="N12">
+        <v>500592</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" t="s">
-        <v>2</v>
-      </c>
-      <c r="J14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M14" t="s">
-        <v>1</v>
-      </c>
-      <c r="N14" t="s">
-        <v>16</v>
-      </c>
-      <c r="O14" t="s">
-        <v>2</v>
-      </c>
-      <c r="P14" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>6</v>
       </c>
-      <c r="B15">
-        <v>259356</v>
-      </c>
-      <c r="C15">
+      <c r="B16">
+        <v>165458</v>
+      </c>
+      <c r="C16">
         <v>13398</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>3657</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
         <v>6</v>
       </c>
-      <c r="H15">
-        <v>101625</v>
-      </c>
-      <c r="I15">
+      <c r="H16">
+        <v>84487</v>
+      </c>
+      <c r="I16">
         <v>14325</v>
       </c>
-      <c r="J15">
+      <c r="J16">
         <f>6759 + 8</f>
         <v>6767</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M16" t="s">
         <v>6</v>
       </c>
-      <c r="N15">
-        <v>68692</v>
-      </c>
-      <c r="O15">
+      <c r="N16">
+        <v>53784</v>
+      </c>
+      <c r="O16">
         <v>8418</v>
       </c>
-      <c r="P15">
+      <c r="P16">
         <f>3830 + 3</f>
         <v>3833</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16">
-        <v>26460</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16">
-        <v>12815</v>
-      </c>
-      <c r="I16">
-        <v>3</v>
-      </c>
-      <c r="J16">
-        <v>2</v>
-      </c>
-      <c r="M16" t="s">
-        <v>7</v>
-      </c>
-      <c r="N16">
-        <v>17950</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-    </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17">
-        <v>12604</v>
+        <v>14569</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2494,19 +2502,25 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H17">
-        <v>1101</v>
+        <v>8748</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N17">
-        <v>6955</v>
+        <v>12767</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -2514,10 +2528,10 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18">
-        <v>220</v>
+        <v>6547</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2526,19 +2540,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H18">
+        <v>684</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
         <v>8</v>
       </c>
-      <c r="J18">
-        <v>2</v>
-      </c>
-      <c r="M18" t="s">
-        <v>9</v>
-      </c>
       <c r="N18">
-        <v>168</v>
+        <v>4672</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -2546,10 +2560,10 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19">
-        <v>1674</v>
+        <v>92</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2558,19 +2572,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H19">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N19">
-        <v>1664</v>
+        <v>113</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -2578,1236 +2592,1388 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B20">
-        <v>8701</v>
-      </c>
-      <c r="C20">
-        <v>392</v>
+        <v>1371</v>
       </c>
       <c r="D20">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H20">
-        <v>3123</v>
-      </c>
-      <c r="I20">
-        <v>1233</v>
+        <v>22</v>
       </c>
       <c r="J20">
-        <v>595</v>
+        <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N20">
-        <v>14988</v>
-      </c>
-      <c r="O20">
-        <v>1080</v>
+        <v>1465</v>
       </c>
       <c r="P20">
-        <v>490</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B21">
-        <v>39338</v>
+        <v>5025</v>
       </c>
       <c r="C21">
-        <v>907</v>
+        <v>392</v>
       </c>
       <c r="D21">
-        <v>348</v>
+        <v>125</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>13986</v>
+        <v>2634</v>
       </c>
       <c r="I21">
-        <v>2930</v>
+        <v>1233</v>
       </c>
       <c r="J21">
-        <v>1678</v>
-      </c>
-      <c r="K21">
-        <v>2390</v>
+        <v>595</v>
       </c>
       <c r="M21" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>10284</v>
+        <v>11815</v>
       </c>
       <c r="O21">
-        <v>779</v>
+        <v>1080</v>
       </c>
       <c r="P21">
-        <v>403</v>
-      </c>
-      <c r="Q21">
-        <v>666</v>
+        <v>490</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <v>25304</v>
+      </c>
+      <c r="C22">
+        <v>907</v>
+      </c>
+      <c r="D22">
+        <v>348</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22">
+        <v>11612</v>
+      </c>
+      <c r="I22">
+        <v>2930</v>
+      </c>
+      <c r="J22">
+        <v>1678</v>
+      </c>
+      <c r="K22">
+        <v>2390</v>
+      </c>
+      <c r="M22" t="s">
+        <v>11</v>
+      </c>
+      <c r="N22">
+        <v>8383</v>
+      </c>
+      <c r="O22">
+        <v>779</v>
+      </c>
+      <c r="P22">
+        <v>403</v>
+      </c>
+      <c r="Q22">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>12</v>
       </c>
-      <c r="B22">
-        <v>426206</v>
-      </c>
-      <c r="C22">
+      <c r="B23">
+        <v>276435</v>
+      </c>
+      <c r="C23">
         <v>16708</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>200</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
         <v>12</v>
       </c>
-      <c r="H22">
-        <v>230758</v>
-      </c>
-      <c r="I22">
+      <c r="H23">
+        <v>192960</v>
+      </c>
+      <c r="I23">
         <v>42632</v>
       </c>
-      <c r="J22">
+      <c r="J23">
         <v>408</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M23" t="s">
         <v>12</v>
       </c>
-      <c r="N22">
-        <v>454306</v>
-      </c>
-      <c r="O22">
+      <c r="N23">
+        <v>381195</v>
+      </c>
+      <c r="O23">
         <v>16663</v>
       </c>
-      <c r="P22">
+      <c r="P23">
         <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>34</v>
+      </c>
+      <c r="B24">
+        <v>494801</v>
       </c>
       <c r="G24" t="s">
-        <v>24</v>
+        <v>34</v>
+      </c>
+      <c r="H24">
+        <v>301154</v>
+      </c>
+      <c r="M24" t="s">
+        <v>34</v>
+      </c>
+      <c r="N24">
+        <v>474194</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25">
+        <v>2640400</v>
+      </c>
+      <c r="G25" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25">
+        <v>1720542</v>
+      </c>
+      <c r="M25" t="s">
+        <v>35</v>
+      </c>
+      <c r="N25">
+        <v>1105178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>1</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B28" t="s">
         <v>16</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C28" t="s">
         <v>2</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D28" t="s">
         <v>18</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E28" t="s">
         <v>4</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G28" t="s">
         <v>1</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H28" t="s">
         <v>16</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I28" t="s">
         <v>2</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J28" t="s">
         <v>18</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K28" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>6</v>
       </c>
-      <c r="B26">
-        <v>159204</v>
-      </c>
-      <c r="C26">
+      <c r="B29">
+        <v>125095</v>
+      </c>
+      <c r="C29">
         <v>61813</v>
       </c>
-      <c r="D26">
+      <c r="D29">
         <f>111 + 22584</f>
         <v>22695</v>
       </c>
-      <c r="E26">
+      <c r="E29">
         <v>37163</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G29" t="s">
         <v>6</v>
       </c>
-      <c r="H26">
-        <v>128931</v>
-      </c>
-      <c r="I26">
+      <c r="H29">
+        <v>98656</v>
+      </c>
+      <c r="I29">
         <v>5538</v>
       </c>
-      <c r="J26">
+      <c r="J29">
         <f>22 + 2343</f>
         <v>2365</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27">
-        <v>16116</v>
-      </c>
-      <c r="C27">
-        <v>50</v>
-      </c>
-      <c r="D27">
-        <v>25</v>
-      </c>
-      <c r="G27" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27">
-        <v>23282</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28">
-        <v>7873</v>
-      </c>
-      <c r="G28" t="s">
-        <v>8</v>
-      </c>
-      <c r="H28">
-        <v>12049</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29">
-        <v>105</v>
-      </c>
-      <c r="D29">
-        <v>45</v>
-      </c>
-      <c r="G29" t="s">
-        <v>9</v>
-      </c>
-      <c r="H29">
-        <v>145</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-    </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B30">
-        <v>989</v>
+        <v>10774</v>
+      </c>
+      <c r="C30">
+        <v>50</v>
+      </c>
+      <c r="D30">
+        <v>25</v>
       </c>
       <c r="G30" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H30">
-        <v>1104</v>
+        <v>15237</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B31">
-        <v>4799</v>
-      </c>
-      <c r="C31">
-        <v>2175</v>
-      </c>
-      <c r="D31">
-        <v>763</v>
-      </c>
-      <c r="E31">
-        <v>990</v>
+        <v>5309</v>
       </c>
       <c r="G31" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H31">
-        <v>11809</v>
-      </c>
-      <c r="I31">
-        <v>551</v>
+        <v>8241</v>
       </c>
       <c r="J31">
-        <v>237</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B32">
-        <v>76621</v>
-      </c>
-      <c r="C32">
-        <v>15526</v>
+        <v>68</v>
       </c>
       <c r="D32">
-        <v>6712</v>
-      </c>
-      <c r="E32">
-        <v>11613</v>
+        <v>45</v>
       </c>
       <c r="G32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H32">
-        <v>36719</v>
-      </c>
-      <c r="I32">
-        <v>1413</v>
+        <v>74</v>
       </c>
       <c r="J32">
-        <v>622</v>
-      </c>
-      <c r="K32">
-        <v>970</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <v>843</v>
+      </c>
+      <c r="G33" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>3676</v>
+      </c>
+      <c r="C34">
+        <v>2175</v>
+      </c>
+      <c r="D34">
+        <v>763</v>
+      </c>
+      <c r="E34">
+        <v>990</v>
+      </c>
+      <c r="G34" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>9489</v>
+      </c>
+      <c r="I34">
+        <v>551</v>
+      </c>
+      <c r="J34">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35">
+        <v>61738</v>
+      </c>
+      <c r="C35">
+        <v>15526</v>
+      </c>
+      <c r="D35">
+        <v>6712</v>
+      </c>
+      <c r="E35">
+        <v>11613</v>
+      </c>
+      <c r="G35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35">
+        <v>28832</v>
+      </c>
+      <c r="I35">
+        <v>1413</v>
+      </c>
+      <c r="J35">
+        <v>622</v>
+      </c>
+      <c r="K35">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>12</v>
       </c>
-      <c r="B33">
-        <v>556994</v>
-      </c>
-      <c r="C33">
+      <c r="B36">
+        <v>485562</v>
+      </c>
+      <c r="C36">
         <v>254769</v>
       </c>
-      <c r="D33">
+      <c r="D36">
         <v>1079</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G36" t="s">
         <v>12</v>
       </c>
-      <c r="H33">
-        <v>381490</v>
-      </c>
-      <c r="I33">
+      <c r="H36">
+        <v>310965</v>
+      </c>
+      <c r="I36">
         <v>14816</v>
       </c>
-      <c r="J33">
+      <c r="J36">
         <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <v>693065</v>
       </c>
       <c r="G37" t="s">
-        <v>26</v>
-      </c>
-      <c r="M37" t="s">
-        <v>28</v>
-      </c>
-      <c r="S37" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="H37">
+        <v>472466</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <v>2394440</v>
+      </c>
+      <c r="G38" t="s">
+        <v>35</v>
+      </c>
+      <c r="H38">
+        <v>1248471</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G40" t="s">
+        <v>26</v>
+      </c>
+      <c r="M40" t="s">
+        <v>28</v>
+      </c>
+      <c r="S40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B41" t="s">
         <v>16</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C41" t="s">
         <v>2</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D41" t="s">
         <v>18</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E41" t="s">
         <v>4</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G41" t="s">
         <v>1</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H41" t="s">
         <v>16</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I41" t="s">
         <v>2</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J41" t="s">
         <v>18</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K41" t="s">
         <v>27</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M41" t="s">
         <v>1</v>
       </c>
-      <c r="N38" t="s">
+      <c r="N41" t="s">
         <v>16</v>
       </c>
-      <c r="O38" t="s">
+      <c r="O41" t="s">
         <v>2</v>
       </c>
-      <c r="P38" t="s">
+      <c r="P41" t="s">
         <v>18</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="Q41" t="s">
         <v>4</v>
       </c>
-      <c r="S38" t="s">
+      <c r="S41" t="s">
         <v>1</v>
       </c>
-      <c r="T38" t="s">
+      <c r="T41" t="s">
         <v>16</v>
       </c>
-      <c r="U38" t="s">
+      <c r="U41" t="s">
         <v>2</v>
       </c>
-      <c r="V38" t="s">
+      <c r="V41" t="s">
         <v>18</v>
       </c>
-      <c r="W38" t="s">
+      <c r="W41" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>6</v>
       </c>
-      <c r="B39">
-        <v>161967</v>
-      </c>
-      <c r="C39">
+      <c r="B42">
+        <v>132896</v>
+      </c>
+      <c r="C42">
         <v>68551</v>
       </c>
-      <c r="D39">
+      <c r="D42">
         <f xml:space="preserve"> 128 + 27057</f>
         <v>27185</v>
       </c>
-      <c r="E39">
+      <c r="E42">
         <v>44060</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G42" t="s">
         <v>6</v>
       </c>
-      <c r="H39">
-        <v>242369</v>
-      </c>
-      <c r="I39">
+      <c r="H42">
+        <v>199935</v>
+      </c>
+      <c r="I42">
         <v>10660</v>
       </c>
-      <c r="J39">
+      <c r="J42">
         <f>35 + 5789</f>
         <v>5824</v>
       </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="M39" t="s">
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="M42" t="s">
         <v>6</v>
       </c>
-      <c r="N39">
-        <v>236475</v>
-      </c>
-      <c r="O39">
+      <c r="N42">
+        <v>207030</v>
+      </c>
+      <c r="O42">
         <v>37831</v>
       </c>
-      <c r="P39">
+      <c r="P42">
         <f>5 + 18519</f>
         <v>18524</v>
       </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="S39" t="s">
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="S42" t="s">
         <v>6</v>
       </c>
-      <c r="T39">
-        <v>117931</v>
-      </c>
-      <c r="U39">
+      <c r="T42">
+        <v>94117</v>
+      </c>
+      <c r="U42">
         <v>50279</v>
       </c>
-      <c r="V39">
+      <c r="V42">
         <f>83 + 22273</f>
         <v>22356</v>
       </c>
-      <c r="W39">
+      <c r="W42">
         <v>31969</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40">
-        <v>7278</v>
-      </c>
-      <c r="C40">
-        <v>25</v>
-      </c>
-      <c r="D40">
-        <v>27</v>
-      </c>
-      <c r="G40" t="s">
-        <v>7</v>
-      </c>
-      <c r="H40">
-        <v>23931</v>
-      </c>
-      <c r="I40">
-        <v>3</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="M40" t="s">
-        <v>7</v>
-      </c>
-      <c r="N40">
-        <v>39332</v>
-      </c>
-      <c r="O40">
-        <v>4</v>
-      </c>
-      <c r="P40">
-        <v>47</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="S40" t="s">
-        <v>7</v>
-      </c>
-      <c r="T40">
-        <v>13754</v>
-      </c>
-      <c r="U40">
-        <v>21</v>
-      </c>
-      <c r="V40">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41">
-        <v>3521</v>
-      </c>
-      <c r="C41">
-        <v>56</v>
-      </c>
-      <c r="D41">
-        <v>51</v>
-      </c>
-      <c r="G41" t="s">
-        <v>8</v>
-      </c>
-      <c r="H41">
-        <v>11793</v>
-      </c>
-      <c r="I41">
-        <v>2</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="M41" t="s">
-        <v>8</v>
-      </c>
-      <c r="N41">
-        <v>3462</v>
-      </c>
-      <c r="P41">
-        <v>2</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="S41" t="s">
-        <v>8</v>
-      </c>
-      <c r="T41">
-        <v>5631</v>
-      </c>
-      <c r="U41">
-        <v>25</v>
-      </c>
-      <c r="V41">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42">
-        <v>63</v>
-      </c>
-      <c r="D42">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>9</v>
-      </c>
-      <c r="H42">
-        <v>129</v>
-      </c>
-      <c r="J42">
-        <v>24</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="M42" t="s">
-        <v>9</v>
-      </c>
-      <c r="N42">
-        <v>25</v>
-      </c>
-      <c r="P42">
-        <v>1</v>
-      </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="S42" t="s">
-        <v>9</v>
-      </c>
-      <c r="T42">
-        <v>101</v>
-      </c>
-      <c r="V42">
-        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B43">
-        <v>376</v>
+        <v>5095</v>
+      </c>
+      <c r="C43">
+        <v>25</v>
+      </c>
+      <c r="D43">
+        <v>27</v>
       </c>
       <c r="G43" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H43">
-        <v>936</v>
+        <v>16504</v>
+      </c>
+      <c r="I43">
+        <v>3</v>
       </c>
       <c r="K43">
         <v>0</v>
       </c>
       <c r="M43" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N43">
-        <v>394</v>
+        <v>28030</v>
+      </c>
+      <c r="O43">
+        <v>4</v>
+      </c>
+      <c r="P43">
+        <v>47</v>
       </c>
       <c r="Q43">
         <v>0</v>
       </c>
       <c r="S43" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="T43">
-        <v>597</v>
+        <v>9197</v>
+      </c>
+      <c r="U43">
+        <v>21</v>
+      </c>
+      <c r="V43">
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B44">
-        <v>3086</v>
+        <v>2373</v>
       </c>
       <c r="C44">
-        <v>911</v>
+        <v>56</v>
       </c>
       <c r="D44">
-        <v>320</v>
-      </c>
-      <c r="E44">
-        <v>541</v>
+        <v>51</v>
       </c>
       <c r="G44" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H44">
-        <v>11740</v>
+        <v>7935</v>
       </c>
       <c r="I44">
-        <v>420</v>
-      </c>
-      <c r="J44">
-        <v>121</v>
+        <v>2</v>
       </c>
       <c r="K44">
         <v>0</v>
       </c>
       <c r="M44" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N44">
-        <v>14006</v>
-      </c>
-      <c r="O44">
-        <v>4948</v>
+        <v>2681</v>
       </c>
       <c r="P44">
-        <v>2535</v>
+        <v>2</v>
       </c>
       <c r="Q44">
         <v>0</v>
       </c>
       <c r="S44" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="T44">
-        <v>12903</v>
+        <v>3761</v>
       </c>
       <c r="U44">
-        <v>2076</v>
+        <v>25</v>
       </c>
       <c r="V44">
-        <v>902</v>
-      </c>
-      <c r="W44">
-        <v>1458</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45">
+        <v>50</v>
+      </c>
+      <c r="D45">
+        <v>14</v>
+      </c>
+      <c r="G45" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45">
+        <v>53</v>
+      </c>
+      <c r="J45">
+        <v>24</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="M45" t="s">
+        <v>9</v>
+      </c>
+      <c r="N45">
+        <v>13</v>
+      </c>
+      <c r="P45">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="S45" t="s">
+        <v>9</v>
+      </c>
+      <c r="T45">
+        <v>52</v>
+      </c>
+      <c r="V45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46">
+        <v>354</v>
+      </c>
+      <c r="G46" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46">
+        <v>767</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="M46" t="s">
+        <v>10</v>
+      </c>
+      <c r="N46">
+        <v>394</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="S46" t="s">
+        <v>10</v>
+      </c>
+      <c r="T46">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>2488</v>
+      </c>
+      <c r="C47">
+        <v>911</v>
+      </c>
+      <c r="D47">
+        <v>320</v>
+      </c>
+      <c r="E47">
+        <v>541</v>
+      </c>
+      <c r="G47" t="s">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>9772</v>
+      </c>
+      <c r="I47">
+        <v>420</v>
+      </c>
+      <c r="J47">
+        <v>121</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="M47" t="s">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>12188</v>
+      </c>
+      <c r="O47">
+        <v>4948</v>
+      </c>
+      <c r="P47">
+        <v>2535</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="S47" t="s">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>10260</v>
+      </c>
+      <c r="U47">
+        <v>2076</v>
+      </c>
+      <c r="V47">
+        <v>902</v>
+      </c>
+      <c r="W47">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>11</v>
       </c>
-      <c r="B45">
-        <v>48725</v>
-      </c>
-      <c r="C45">
+      <c r="B48">
+        <v>39992</v>
+      </c>
+      <c r="C48">
         <v>6989</v>
       </c>
-      <c r="D45">
+      <c r="D48">
         <v>3039</v>
       </c>
-      <c r="E45">
+      <c r="E48">
         <v>5517</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G48" t="s">
         <v>11</v>
       </c>
-      <c r="H45">
-        <v>36278</v>
-      </c>
-      <c r="I45">
+      <c r="H48">
+        <v>29196</v>
+      </c>
+      <c r="I48">
         <v>1150</v>
       </c>
-      <c r="J45">
+      <c r="J48">
         <v>544</v>
       </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="M45" t="s">
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="M48" t="s">
         <v>11</v>
       </c>
-      <c r="N45">
-        <v>46335</v>
-      </c>
-      <c r="O45">
+      <c r="N48">
+        <v>40547</v>
+      </c>
+      <c r="O48">
         <v>7877</v>
       </c>
-      <c r="P45">
+      <c r="P48">
         <f>5554</f>
         <v>5554</v>
       </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="S45" t="s">
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="S48" t="s">
         <v>11</v>
       </c>
-      <c r="T45">
-        <v>35171</v>
-      </c>
-      <c r="U45">
+      <c r="T48">
+        <v>28110</v>
+      </c>
+      <c r="U48">
         <v>8436</v>
       </c>
-      <c r="V45">
+      <c r="V48">
         <v>4492</v>
       </c>
-      <c r="W45">
+      <c r="W48">
         <v>6462</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>12</v>
       </c>
-      <c r="B46">
-        <v>271155</v>
-      </c>
-      <c r="C46">
+      <c r="B49">
+        <v>231899</v>
+      </c>
+      <c r="C49">
         <v>118163</v>
       </c>
-      <c r="D46">
+      <c r="D49">
         <v>524</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G49" t="s">
         <v>12</v>
       </c>
-      <c r="H46">
-        <v>579169</v>
-      </c>
-      <c r="I46">
+      <c r="H49">
+        <v>476392</v>
+      </c>
+      <c r="I49">
         <v>13848</v>
       </c>
-      <c r="J46">
+      <c r="J49">
         <v>174</v>
       </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="M46" t="s">
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="M49" t="s">
         <v>12</v>
       </c>
-      <c r="N46">
-        <v>711682</v>
-      </c>
-      <c r="O46">
+      <c r="N49">
+        <v>622139</v>
+      </c>
+      <c r="O49">
         <v>82957</v>
       </c>
-      <c r="P46">
+      <c r="P49">
         <v>828</v>
       </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="S46" t="s">
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="S49" t="s">
         <v>12</v>
       </c>
-      <c r="T46">
-        <v>525031</v>
-      </c>
-      <c r="U46">
+      <c r="T49">
+        <v>446516</v>
+      </c>
+      <c r="U49">
         <v>99341</v>
       </c>
-      <c r="V46">
+      <c r="V49">
         <v>702</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50">
+        <v>415147</v>
+      </c>
+      <c r="G50" t="s">
+        <v>34</v>
+      </c>
+      <c r="H50">
+        <v>740554</v>
+      </c>
+      <c r="M50" t="s">
+        <v>34</v>
+      </c>
+      <c r="N50">
+        <v>913022</v>
+      </c>
+      <c r="S50" t="s">
+        <v>34</v>
+      </c>
+      <c r="T50">
+        <v>592497</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51">
+        <v>2261677</v>
+      </c>
+      <c r="G51" t="s">
+        <v>35</v>
+      </c>
+      <c r="H51">
+        <v>1781906</v>
+      </c>
+      <c r="M51" t="s">
+        <v>35</v>
+      </c>
+      <c r="N51">
+        <v>3229819</v>
+      </c>
+      <c r="S51" t="s">
+        <v>35</v>
+      </c>
+      <c r="T51">
+        <v>1753306</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>30</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B54" t="s">
         <v>31</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C54" t="s">
         <v>2</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D54" t="s">
         <v>3</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E54" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>6</v>
       </c>
-      <c r="B52">
-        <f>B3+H3+N3+B15+H15+N15+B26+H26+B39+H39+N39+T39</f>
-        <v>1827644</v>
-      </c>
-      <c r="C52">
-        <f t="shared" ref="C52:E59" si="0">C3+I3+O3+C15+I15+O15+C26+I26+C39+I39+O39+U39</f>
+      <c r="B55">
+        <f>B3+H3+N3+B16+H16+N16+B29+H29+B42+H42+N42+T42</f>
+        <v>1434547</v>
+      </c>
+      <c r="C55">
+        <f>C3+I3+O3+C16+I16+O16+C29+I29+C42+I42+O42+U42</f>
         <v>318509</v>
       </c>
-      <c r="D52">
-        <f>D3+J3+P3+D15+J15+P15+D26+J26+D39+J39+P39+V39</f>
+      <c r="D55">
+        <f>D3+J3+P3+D16+J16+P16+D29+J29+D42+J42+P42+V42</f>
         <v>135251</v>
       </c>
-      <c r="E52">
-        <f t="shared" si="0"/>
+      <c r="E55">
+        <f>E3+K3+Q3+E16+K16+Q16+E29+K29+E42+K42+Q42+W42</f>
         <v>148115</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>7</v>
       </c>
-      <c r="B53">
-        <f t="shared" ref="B53:B59" si="1">B4+H4+N4+B16+H16+N16+B27+H27+B40+H40+N40+T40</f>
-        <v>236385</v>
-      </c>
-      <c r="C53">
-        <f t="shared" si="0"/>
+      <c r="B56">
+        <f>B4+H4+N4+B17+H17+N17+B30+H30+B43+H43+N43+T43</f>
+        <v>160454</v>
+      </c>
+      <c r="C56">
+        <f>C4+I4+O4+C17+I17+O17+C30+I30+C43+I43+O43+U43</f>
         <v>116</v>
       </c>
-      <c r="D53">
-        <f t="shared" si="0"/>
+      <c r="D56">
+        <f>D4+J4+P4+D17+J17+P17+D30+J30+D43+J43+P43+V43</f>
         <v>120</v>
       </c>
-      <c r="E53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="E56">
+        <f>E4+K4+Q4+E17+K17+Q17+E30+K30+E43+K43+Q43+W43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>8</v>
       </c>
-      <c r="B54">
-        <f t="shared" si="1"/>
-        <v>83126</v>
-      </c>
-      <c r="C54">
-        <f t="shared" si="0"/>
+      <c r="B57">
+        <f>B5+H5+N5+B18+H18+N18+B31+H31+B44+H44+N44+T44</f>
+        <v>54640</v>
+      </c>
+      <c r="C57">
+        <f>C5+I5+O5+C18+I18+O18+C31+I31+C44+I44+O44+U44</f>
         <v>120</v>
       </c>
-      <c r="D54">
-        <f t="shared" si="0"/>
+      <c r="D57">
+        <f>D5+J5+P5+D18+J18+P18+D31+J31+D44+J44+P44+V44</f>
         <v>87</v>
       </c>
-      <c r="E54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="E57">
+        <f>E5+K5+Q5+E18+K18+Q18+E31+K31+E44+K44+Q44+W44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>9</v>
       </c>
-      <c r="B55">
-        <f t="shared" si="1"/>
-        <v>1403</v>
-      </c>
-      <c r="C55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <f t="shared" si="0"/>
+      <c r="B58">
+        <f>B6+H6+N6+B19+H19+N19+B32+H32+B45+H45+N45+T45</f>
+        <v>817</v>
+      </c>
+      <c r="C58">
+        <f>C6+I6+O6+C19+I19+O19+C32+I32+C45+I45+O45+U45</f>
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <f>D6+J6+P6+D19+J19+P19+D32+J32+D45+J45+P45+V45</f>
         <v>115</v>
       </c>
-      <c r="E55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="E58">
+        <f>E6+K6+Q6+E19+K19+Q19+E32+K32+E45+K45+Q45+W45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>10</v>
       </c>
-      <c r="B56">
-        <f t="shared" si="1"/>
-        <v>11212</v>
-      </c>
-      <c r="C56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57">
-        <f t="shared" si="1"/>
-        <v>111165</v>
-      </c>
-      <c r="C57">
-        <f t="shared" si="0"/>
+      <c r="B59">
+        <f>B7+H7+N7+B20+H20+N20+B33+H33+B46+H46+N46+T46</f>
+        <v>9834</v>
+      </c>
+      <c r="C59">
+        <f>C7+I7+O7+C20+I20+O20+C33+I33+C46+I46+O46+U46</f>
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <f>D7+J7+P7+D20+J20+P20+D33+J33+D46+J46+P46+V46</f>
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <f>E7+K7+Q7+E20+K20+Q20+E33+K33+E46+K46+Q46+W46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <f>B8+H8+N8+B21+H21+N21+B34+H34+B47+H47+N47+T47</f>
+        <v>89459</v>
+      </c>
+      <c r="C60">
+        <f>C8+I8+O8+C21+I21+O21+C34+I34+C47+I47+O47+U47</f>
         <v>17048</v>
       </c>
-      <c r="D57">
-        <f t="shared" si="0"/>
+      <c r="D60">
+        <f>D8+J8+P8+D21+J21+P21+D34+J34+D47+J47+P47+V47</f>
         <v>7763</v>
       </c>
-      <c r="E57">
-        <f t="shared" si="0"/>
+      <c r="E60">
+        <f>E8+K8+Q8+E21+K21+Q21+E34+K34+E47+K47+Q47+W47</f>
         <v>4929</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>11</v>
       </c>
-      <c r="B58">
-        <f t="shared" si="1"/>
-        <v>405358</v>
-      </c>
-      <c r="C58">
-        <f t="shared" si="0"/>
+      <c r="B61">
+        <f>B9+H9+N9+B22+H22+N22+B35+H35+B48+H48+N48+T48</f>
+        <v>322467</v>
+      </c>
+      <c r="C61">
+        <f>C9+I9+O9+C22+I22+O22+C35+I35+C48+I48+O48+U48</f>
         <v>63392</v>
       </c>
-      <c r="D58">
-        <f t="shared" si="0"/>
+      <c r="D61">
+        <f>D9+J9+P9+D22+J22+P22+D35+J35+D48+J48+P48+V48</f>
         <v>33025</v>
       </c>
-      <c r="E58">
-        <f t="shared" si="0"/>
+      <c r="E61">
+        <f>E9+K9+Q9+E22+K22+Q22+E35+K35+E48+K48+Q48+W48</f>
         <v>40949</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>12</v>
       </c>
-      <c r="B59">
-        <f t="shared" si="1"/>
-        <v>5670977</v>
-      </c>
-      <c r="C59">
-        <f t="shared" si="0"/>
+      <c r="B62">
+        <f>B10+H10+N10+B23+H23+N23+B36+H36+B49+H49+N49+T49</f>
+        <v>4768896</v>
+      </c>
+      <c r="C62">
+        <f>C10+I10+O10+C23+I23+O23+C36+I36+C49+I49+O49+U49</f>
         <v>914033</v>
       </c>
-      <c r="D59">
-        <f t="shared" si="0"/>
+      <c r="D62">
+        <f>D10+J10+P10+D23+J23+P23+D36+J36+D49+J49+P49+V49</f>
         <v>7053</v>
       </c>
-      <c r="E59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>31</v>
-      </c>
-      <c r="C63" t="s">
-        <v>2</v>
-      </c>
-      <c r="D63" t="s">
-        <v>3</v>
-      </c>
-      <c r="E63" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>6</v>
-      </c>
-      <c r="B64">
-        <f>B52/12</f>
-        <v>152303.66666666666</v>
-      </c>
-      <c r="C64">
-        <f t="shared" ref="C64:E64" si="2">C52/12</f>
-        <v>26542.416666666668</v>
-      </c>
-      <c r="D64">
-        <f t="shared" si="2"/>
-        <v>11270.916666666666</v>
-      </c>
-      <c r="E64">
-        <f t="shared" si="2"/>
-        <v>12342.916666666666</v>
+      <c r="E62">
+        <f>E10+K10+Q10+E23+K23+Q23+E36+K36+E49+K49+Q49+W49</f>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>7</v>
-      </c>
-      <c r="B65">
-        <f t="shared" ref="B65:E71" si="3">B53/12</f>
-        <v>19698.75</v>
-      </c>
-      <c r="C65">
-        <f t="shared" si="3"/>
-        <v>9.6666666666666661</v>
-      </c>
-      <c r="D65">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="E65">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>8</v>
-      </c>
-      <c r="B66">
-        <f t="shared" si="3"/>
-        <v>6927.166666666667</v>
-      </c>
-      <c r="C66">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="D66">
-        <f t="shared" si="3"/>
-        <v>7.25</v>
-      </c>
-      <c r="E66">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="B66" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B67">
-        <f t="shared" si="3"/>
-        <v>116.91666666666667</v>
+        <f>B55/12</f>
+        <v>119545.58333333333</v>
       </c>
       <c r="C67">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ref="C67:E67" si="0">C55/12</f>
+        <v>26542.416666666668</v>
       </c>
       <c r="D67">
-        <f t="shared" si="3"/>
-        <v>9.5833333333333339</v>
+        <f t="shared" si="0"/>
+        <v>11270.916666666666</v>
       </c>
       <c r="E67">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>12342.916666666666</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ref="B68:E74" si="1">B56/12</f>
+        <v>13371.166666666666</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="1"/>
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B68">
-        <f t="shared" si="3"/>
-        <v>934.33333333333337</v>
-      </c>
-      <c r="C68">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D68">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="E68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B69">
-        <f t="shared" si="3"/>
-        <v>9263.75</v>
+        <f t="shared" si="1"/>
+        <v>4553.333333333333</v>
       </c>
       <c r="C69">
-        <f t="shared" si="3"/>
-        <v>1420.6666666666667</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="D69">
-        <f t="shared" si="3"/>
-        <v>646.91666666666663</v>
+        <f t="shared" si="1"/>
+        <v>7.25</v>
       </c>
       <c r="E69">
-        <f t="shared" si="3"/>
-        <v>410.75</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B70">
-        <f t="shared" si="3"/>
-        <v>33779.833333333336</v>
+        <f t="shared" si="1"/>
+        <v>68.083333333333329</v>
       </c>
       <c r="C70">
-        <f t="shared" si="3"/>
-        <v>5282.666666666667</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D70">
-        <f t="shared" si="3"/>
-        <v>2752.0833333333335</v>
+        <f t="shared" si="1"/>
+        <v>9.5833333333333339</v>
       </c>
       <c r="E70">
-        <f t="shared" si="3"/>
-        <v>3412.4166666666665</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="1"/>
+        <v>819.5</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="1"/>
+        <v>7454.916666666667</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="1"/>
+        <v>1420.6666666666667</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="1"/>
+        <v>646.91666666666663</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="1"/>
+        <v>410.75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>11</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="1"/>
+        <v>26872.25</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="1"/>
+        <v>5282.666666666667</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="1"/>
+        <v>2752.0833333333335</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="1"/>
+        <v>3412.4166666666665</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>12</v>
       </c>
-      <c r="B71">
-        <f t="shared" si="3"/>
-        <v>472581.41666666669</v>
-      </c>
-      <c r="C71">
-        <f t="shared" si="3"/>
+      <c r="B74">
+        <f t="shared" si="1"/>
+        <v>397408</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="1"/>
         <v>76169.416666666672</v>
       </c>
-      <c r="D71">
-        <f t="shared" si="3"/>
+      <c r="D74">
+        <f t="shared" si="1"/>
         <v>587.75</v>
       </c>
-      <c r="E71">
-        <f t="shared" si="3"/>
+      <c r="E74">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>

--- a/prototypes/post-run-analysis/GA/GA_final_table.xlsx
+++ b/prototypes/post-run-analysis/GA/GA_final_table.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E570DE-44C3-4E48-B73C-4C0B0F253E43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5152BEB6-0A69-4352-99B2-FF2D0D17B2D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5580" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="37">
   <si>
     <t>Lactobacillus Murinus ASF361</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>unmapped reads</t>
+  </si>
+  <si>
+    <t>Expected Results</t>
   </si>
 </sst>
 </file>
@@ -310,7 +313,7 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>BWA</c:v>
+                  <c:v>Expected Results</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>MetaPro</c:v>
@@ -381,7 +384,7 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>BWA</c:v>
+                  <c:v>Expected Results</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>MetaPro</c:v>
@@ -452,7 +455,7 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>BWA</c:v>
+                  <c:v>Expected Results</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>MetaPro</c:v>
@@ -523,7 +526,7 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>BWA</c:v>
+                  <c:v>Expected Results</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>MetaPro</c:v>
@@ -594,7 +597,7 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>BWA</c:v>
+                  <c:v>Expected Results</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>MetaPro</c:v>
@@ -665,7 +668,7 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>BWA</c:v>
+                  <c:v>Expected Results</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>MetaPro</c:v>
@@ -738,7 +741,7 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>BWA</c:v>
+                  <c:v>Expected Results</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>MetaPro</c:v>
@@ -811,7 +814,7 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>BWA</c:v>
+                  <c:v>Expected Results</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>MetaPro</c:v>
@@ -860,7 +863,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:gapWidth val="25"/>
         <c:overlap val="100"/>
         <c:axId val="1090444576"/>
         <c:axId val="1481224992"/>
@@ -1614,16 +1617,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>241767</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>84042</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>533120</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>5601</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>156883</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1916,8 +1919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S42" sqref="S42:T51"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3627,19 +3630,19 @@
         <v>6</v>
       </c>
       <c r="B55">
-        <f>B3+H3+N3+B16+H16+N16+B29+H29+B42+H42+N42+T42</f>
+        <f t="shared" ref="B55:E62" si="0">B3+H3+N3+B16+H16+N16+B29+H29+B42+H42+N42+T42</f>
         <v>1434547</v>
       </c>
       <c r="C55">
-        <f>C3+I3+O3+C16+I16+O16+C29+I29+C42+I42+O42+U42</f>
+        <f t="shared" si="0"/>
         <v>318509</v>
       </c>
       <c r="D55">
-        <f>D3+J3+P3+D16+J16+P16+D29+J29+D42+J42+P42+V42</f>
+        <f t="shared" si="0"/>
         <v>135251</v>
       </c>
       <c r="E55">
-        <f>E3+K3+Q3+E16+K16+Q16+E29+K29+E42+K42+Q42+W42</f>
+        <f t="shared" si="0"/>
         <v>148115</v>
       </c>
     </row>
@@ -3648,19 +3651,19 @@
         <v>7</v>
       </c>
       <c r="B56">
-        <f>B4+H4+N4+B17+H17+N17+B30+H30+B43+H43+N43+T43</f>
+        <f t="shared" si="0"/>
         <v>160454</v>
       </c>
       <c r="C56">
-        <f>C4+I4+O4+C17+I17+O17+C30+I30+C43+I43+O43+U43</f>
+        <f t="shared" si="0"/>
         <v>116</v>
       </c>
       <c r="D56">
-        <f>D4+J4+P4+D17+J17+P17+D30+J30+D43+J43+P43+V43</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="E56">
-        <f>E4+K4+Q4+E17+K17+Q17+E30+K30+E43+K43+Q43+W43</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3669,19 +3672,19 @@
         <v>8</v>
       </c>
       <c r="B57">
-        <f>B5+H5+N5+B18+H18+N18+B31+H31+B44+H44+N44+T44</f>
+        <f t="shared" si="0"/>
         <v>54640</v>
       </c>
       <c r="C57">
-        <f>C5+I5+O5+C18+I18+O18+C31+I31+C44+I44+O44+U44</f>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="D57">
-        <f>D5+J5+P5+D18+J18+P18+D31+J31+D44+J44+P44+V44</f>
+        <f t="shared" si="0"/>
         <v>87</v>
       </c>
       <c r="E57">
-        <f>E5+K5+Q5+E18+K18+Q18+E31+K31+E44+K44+Q44+W44</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3690,19 +3693,19 @@
         <v>9</v>
       </c>
       <c r="B58">
-        <f>B6+H6+N6+B19+H19+N19+B32+H32+B45+H45+N45+T45</f>
+        <f t="shared" si="0"/>
         <v>817</v>
       </c>
       <c r="C58">
-        <f>C6+I6+O6+C19+I19+O19+C32+I32+C45+I45+O45+U45</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D58">
-        <f>D6+J6+P6+D19+J19+P19+D32+J32+D45+J45+P45+V45</f>
+        <f t="shared" si="0"/>
         <v>115</v>
       </c>
       <c r="E58">
-        <f>E6+K6+Q6+E19+K19+Q19+E32+K32+E45+K45+Q45+W45</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3711,19 +3714,19 @@
         <v>10</v>
       </c>
       <c r="B59">
-        <f>B7+H7+N7+B20+H20+N20+B33+H33+B46+H46+N46+T46</f>
+        <f t="shared" si="0"/>
         <v>9834</v>
       </c>
       <c r="C59">
-        <f>C7+I7+O7+C20+I20+O20+C33+I33+C46+I46+O46+U46</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D59">
-        <f>D7+J7+P7+D20+J20+P20+D33+J33+D46+J46+P46+V46</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E59">
-        <f>E7+K7+Q7+E20+K20+Q20+E33+K33+E46+K46+Q46+W46</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3732,19 +3735,19 @@
         <v>0</v>
       </c>
       <c r="B60">
-        <f>B8+H8+N8+B21+H21+N21+B34+H34+B47+H47+N47+T47</f>
+        <f t="shared" si="0"/>
         <v>89459</v>
       </c>
       <c r="C60">
-        <f>C8+I8+O8+C21+I21+O21+C34+I34+C47+I47+O47+U47</f>
+        <f t="shared" si="0"/>
         <v>17048</v>
       </c>
       <c r="D60">
-        <f>D8+J8+P8+D21+J21+P21+D34+J34+D47+J47+P47+V47</f>
+        <f t="shared" si="0"/>
         <v>7763</v>
       </c>
       <c r="E60">
-        <f>E8+K8+Q8+E21+K21+Q21+E34+K34+E47+K47+Q47+W47</f>
+        <f t="shared" si="0"/>
         <v>4929</v>
       </c>
     </row>
@@ -3753,19 +3756,19 @@
         <v>11</v>
       </c>
       <c r="B61">
-        <f>B9+H9+N9+B22+H22+N22+B35+H35+B48+H48+N48+T48</f>
+        <f t="shared" si="0"/>
         <v>322467</v>
       </c>
       <c r="C61">
-        <f>C9+I9+O9+C22+I22+O22+C35+I35+C48+I48+O48+U48</f>
+        <f t="shared" si="0"/>
         <v>63392</v>
       </c>
       <c r="D61">
-        <f>D9+J9+P9+D22+J22+P22+D35+J35+D48+J48+P48+V48</f>
+        <f t="shared" si="0"/>
         <v>33025</v>
       </c>
       <c r="E61">
-        <f>E9+K9+Q9+E22+K22+Q22+E35+K35+E48+K48+Q48+W48</f>
+        <f t="shared" si="0"/>
         <v>40949</v>
       </c>
     </row>
@@ -3774,19 +3777,19 @@
         <v>12</v>
       </c>
       <c r="B62">
-        <f>B10+H10+N10+B23+H23+N23+B36+H36+B49+H49+N49+T49</f>
+        <f t="shared" si="0"/>
         <v>4768896</v>
       </c>
       <c r="C62">
-        <f>C10+I10+O10+C23+I23+O23+C36+I36+C49+I49+O49+U49</f>
+        <f t="shared" si="0"/>
         <v>914033</v>
       </c>
       <c r="D62">
-        <f>D10+J10+P10+D23+J23+P23+D36+J36+D49+J49+P49+V49</f>
+        <f t="shared" si="0"/>
         <v>7053</v>
       </c>
       <c r="E62">
-        <f>E10+K10+Q10+E23+K23+Q23+E36+K36+E49+K49+Q49+W49</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -3797,7 +3800,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C66" t="s">
         <v>2</v>
@@ -3818,15 +3821,15 @@
         <v>119545.58333333333</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:E67" si="0">C55/12</f>
+        <f t="shared" ref="C67:E67" si="1">C55/12</f>
         <v>26542.416666666668</v>
       </c>
       <c r="D67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11270.916666666666</v>
       </c>
       <c r="E67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12342.916666666666</v>
       </c>
     </row>
@@ -3835,19 +3838,19 @@
         <v>7</v>
       </c>
       <c r="B68">
-        <f t="shared" ref="B68:E74" si="1">B56/12</f>
+        <f t="shared" ref="B68:E74" si="2">B56/12</f>
         <v>13371.166666666666</v>
       </c>
       <c r="C68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.6666666666666661</v>
       </c>
       <c r="D68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="E68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3856,19 +3859,19 @@
         <v>8</v>
       </c>
       <c r="B69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4553.333333333333</v>
       </c>
       <c r="C69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="D69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.25</v>
       </c>
       <c r="E69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3877,19 +3880,19 @@
         <v>9</v>
       </c>
       <c r="B70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>68.083333333333329</v>
       </c>
       <c r="C70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.5833333333333339</v>
       </c>
       <c r="E70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3898,19 +3901,19 @@
         <v>10</v>
       </c>
       <c r="B71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>819.5</v>
       </c>
       <c r="C71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3919,19 +3922,19 @@
         <v>0</v>
       </c>
       <c r="B72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7454.916666666667</v>
       </c>
       <c r="C72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1420.6666666666667</v>
       </c>
       <c r="D72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>646.91666666666663</v>
       </c>
       <c r="E72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>410.75</v>
       </c>
     </row>
@@ -3940,19 +3943,19 @@
         <v>11</v>
       </c>
       <c r="B73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26872.25</v>
       </c>
       <c r="C73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5282.666666666667</v>
       </c>
       <c r="D73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2752.0833333333335</v>
       </c>
       <c r="E73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3412.4166666666665</v>
       </c>
     </row>
@@ -3961,19 +3964,19 @@
         <v>12</v>
       </c>
       <c r="B74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>397408</v>
       </c>
       <c r="C74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>76169.416666666672</v>
       </c>
       <c r="D74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>587.75</v>
       </c>
       <c r="E74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>

--- a/prototypes/post-run-analysis/GA/GA_final_table.xlsx
+++ b/prototypes/post-run-analysis/GA/GA_final_table.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5152BEB6-0A69-4352-99B2-FF2D0D17B2D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4AEC93-B7AD-47C6-829B-4F8C6F015D5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6510" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="49">
   <si>
     <t>Lactobacillus Murinus ASF361</t>
   </si>
@@ -42,9 +42,6 @@
     <t>humann2</t>
   </si>
   <si>
-    <t>BWA only</t>
-  </si>
-  <si>
     <t>Clostridium ASF356</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>sams2 without labels</t>
   </si>
   <si>
-    <t>number of reads</t>
-  </si>
-  <si>
     <t>501 colq n</t>
   </si>
   <si>
@@ -136,6 +130,48 @@
   </si>
   <si>
     <t>Expected Results</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>1 cq n</t>
+  </si>
+  <si>
+    <t>1 cq y</t>
+  </si>
+  <si>
+    <t>1 lq n</t>
+  </si>
+  <si>
+    <t>2 cq n</t>
+  </si>
+  <si>
+    <t>2 cq y</t>
+  </si>
+  <si>
+    <t>2 lq n</t>
+  </si>
+  <si>
+    <t>3 cm n</t>
+  </si>
+  <si>
+    <t>3 cq n</t>
+  </si>
+  <si>
+    <t>4 cm n</t>
+  </si>
+  <si>
+    <t>4 cq n</t>
+  </si>
+  <si>
+    <t>4 cq y</t>
+  </si>
+  <si>
+    <t>4 lq n</t>
+  </si>
+  <si>
+    <t>metapro</t>
   </si>
 </sst>
 </file>
@@ -188,1470 +224,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-CA" sz="2000" baseline="0"/>
-              <a:t>Relative Gene Annotations by various Metatranscriptomic tools</a:t>
-            </a:r>
-            <a:br>
-              <a:rPr lang="en-CA" sz="2000" baseline="0"/>
-            </a:br>
-            <a:r>
-              <a:rPr lang="en-CA" sz="2000" baseline="0"/>
-              <a:t>(Species Level)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.10657108107235412"/>
-          <c:y val="0.10444451768630446"/>
-          <c:w val="0.85146627012363896"/>
-          <c:h val="0.66873554347640929"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$67</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Clostridium ASF356</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$66:$E$66</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Expected Results</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MetaPro</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SAMSA2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>HUMAnN2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$67:$E$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>119545.58333333333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>26542.416666666668</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11270.916666666666</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12342.916666666666</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DF44-44F5-8715-80B39FCC6EDF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$68</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Clostridium ASF502</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$66:$E$66</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Expected Results</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MetaPro</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SAMSA2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>HUMAnN2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$68:$E$68</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>13371.166666666666</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.6666666666666661</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DF44-44F5-8715-80B39FCC6EDF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$69</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Eubacterium Plexicaudatum ASF492</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$66:$E$66</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Expected Results</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MetaPro</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SAMSA2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>HUMAnN2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$69:$E$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4553.333333333333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-DF44-44F5-8715-80B39FCC6EDF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$70</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Firmicutes ASF500</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$66:$E$66</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Expected Results</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MetaPro</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SAMSA2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>HUMAnN2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$70:$E$70</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>68.083333333333329</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.5833333333333339</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-DF44-44F5-8715-80B39FCC6EDF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$71</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Lactobacillus ASF360</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$66:$E$66</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Expected Results</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MetaPro</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SAMSA2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>HUMAnN2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$71:$E$71</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>819.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-DF44-44F5-8715-80B39FCC6EDF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$72</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Lactobacillus Murinus ASF361</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$66:$E$66</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Expected Results</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MetaPro</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SAMSA2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>HUMAnN2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$72:$E$72</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>7454.916666666667</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1420.6666666666667</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>646.91666666666663</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>410.75</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-DF44-44F5-8715-80B39FCC6EDF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$73</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Mucispirillum Schaedleri ASF457</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$66:$E$66</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Expected Results</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MetaPro</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SAMSA2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>HUMAnN2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$73:$E$73</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>26872.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5282.666666666667</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2752.0833333333335</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3412.4166666666665</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-DF44-44F5-8715-80B39FCC6EDF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$74</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Parabacteroides ASF519</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$66:$E$66</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Expected Results</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MetaPro</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SAMSA2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>HUMAnN2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$74:$E$74</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>397408</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>76169.416666666672</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>587.75</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-DF44-44F5-8715-80B39FCC6EDF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="25"/>
-        <c:overlap val="100"/>
-        <c:axId val="1090444576"/>
-        <c:axId val="1481224992"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1090444576"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1481224992"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1481224992"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1090444576"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0"/>
-          <c:y val="0.84889613818714549"/>
-          <c:w val="1"/>
-          <c:h val="0.15110386181285454"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>533120</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>5601</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>56029</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38563577-9100-4D18-8544-4118F9452F48}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1919,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L65" sqref="L65:L72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1931,13 +503,13 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
       <c r="M1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -1945,7 +517,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -1960,13 +532,13 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s">
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
         <v>4</v>
@@ -1975,13 +547,13 @@
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="O2" t="s">
         <v>2</v>
       </c>
       <c r="P2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q2" t="s">
         <v>4</v>
@@ -1989,7 +561,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>67159</v>
@@ -2004,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H3">
         <v>119289</v>
@@ -2020,7 +592,7 @@
         <v>34923</v>
       </c>
       <c r="M3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N3">
         <v>86641</v>
@@ -2038,7 +610,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>3137</v>
@@ -2053,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H4">
         <v>8182</v>
@@ -2065,7 +637,7 @@
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N4">
         <v>28214</v>
@@ -2082,7 +654,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>1505</v>
@@ -2097,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H5">
         <v>978</v>
@@ -2109,7 +681,7 @@
         <v>5</v>
       </c>
       <c r="M5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N5">
         <v>9954</v>
@@ -2126,7 +698,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>28</v>
@@ -2141,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H6">
         <v>15</v>
@@ -2153,7 +725,7 @@
         <v>3</v>
       </c>
       <c r="M6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N6">
         <v>252</v>
@@ -2170,7 +742,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>78</v>
@@ -2185,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7">
         <v>10</v>
@@ -2197,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N7">
         <v>3074</v>
@@ -2261,7 +833,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>11043</v>
@@ -2276,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9">
         <v>27199</v>
@@ -2291,7 +863,7 @@
         <v>13331</v>
       </c>
       <c r="M9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N9">
         <v>10511</v>
@@ -2308,7 +880,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>103148</v>
@@ -2323,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10">
         <v>526030</v>
@@ -2335,7 +907,7 @@
         <v>2683</v>
       </c>
       <c r="M10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N10">
         <v>715655</v>
@@ -2352,19 +924,19 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11">
         <v>187709</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>686600</v>
       </c>
       <c r="M11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N11">
         <v>869905</v>
@@ -2372,19 +944,19 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B12">
         <v>2058585</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H12">
         <v>2244751</v>
       </c>
       <c r="M12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N12">
         <v>500592</v>
@@ -2392,13 +964,13 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
         <v>19</v>
       </c>
-      <c r="G14" t="s">
-        <v>21</v>
-      </c>
       <c r="M14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -2406,43 +978,43 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
       </c>
       <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
         <v>18</v>
-      </c>
-      <c r="E15" t="s">
-        <v>20</v>
       </c>
       <c r="G15" t="s">
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I15" t="s">
         <v>2</v>
       </c>
       <c r="J15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" t="s">
         <v>18</v>
-      </c>
-      <c r="K15" t="s">
-        <v>20</v>
       </c>
       <c r="M15" t="s">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="O15" t="s">
         <v>2</v>
       </c>
       <c r="P15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q15" t="s">
         <v>4</v>
@@ -2450,7 +1022,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16">
         <v>165458</v>
@@ -2465,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H16">
         <v>84487</v>
@@ -2478,7 +1050,7 @@
         <v>6767</v>
       </c>
       <c r="M16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N16">
         <v>53784</v>
@@ -2493,7 +1065,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17">
         <v>14569</v>
@@ -2505,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H17">
         <v>8748</v>
@@ -2517,7 +1089,7 @@
         <v>2</v>
       </c>
       <c r="M17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N17">
         <v>12767</v>
@@ -2531,7 +1103,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18">
         <v>6547</v>
@@ -2543,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H18">
         <v>684</v>
@@ -2552,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N18">
         <v>4672</v>
@@ -2563,7 +1135,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19">
         <v>92</v>
@@ -2575,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H19">
         <v>7</v>
@@ -2584,7 +1156,7 @@
         <v>2</v>
       </c>
       <c r="M19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N19">
         <v>113</v>
@@ -2595,7 +1167,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20">
         <v>1371</v>
@@ -2607,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H20">
         <v>22</v>
@@ -2616,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N20">
         <v>1465</v>
@@ -2668,7 +1240,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22">
         <v>25304</v>
@@ -2683,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H22">
         <v>11612</v>
@@ -2698,7 +1270,7 @@
         <v>2390</v>
       </c>
       <c r="M22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N22">
         <v>8383</v>
@@ -2715,7 +1287,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>276435</v>
@@ -2730,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H23">
         <v>192960</v>
@@ -2742,7 +1314,7 @@
         <v>408</v>
       </c>
       <c r="M23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N23">
         <v>381195</v>
@@ -2756,19 +1328,19 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B24">
         <v>494801</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H24">
         <v>301154</v>
       </c>
       <c r="M24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N24">
         <v>474194</v>
@@ -2776,19 +1348,19 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B25">
         <v>2640400</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H25">
         <v>1720542</v>
       </c>
       <c r="M25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N25">
         <v>1105178</v>
@@ -2796,10 +1368,10 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -2807,13 +1379,13 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E28" t="s">
         <v>4</v>
@@ -2822,13 +1394,13 @@
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I28" t="s">
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K28" t="s">
         <v>4</v>
@@ -2836,7 +1408,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29">
         <v>125095</v>
@@ -2852,7 +1424,7 @@
         <v>37163</v>
       </c>
       <c r="G29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H29">
         <v>98656</v>
@@ -2867,7 +1439,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B30">
         <v>10774</v>
@@ -2879,7 +1451,7 @@
         <v>25</v>
       </c>
       <c r="G30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H30">
         <v>15237</v>
@@ -2890,13 +1462,13 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31">
         <v>5309</v>
       </c>
       <c r="G31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H31">
         <v>8241</v>
@@ -2907,7 +1479,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B32">
         <v>68</v>
@@ -2916,7 +1488,7 @@
         <v>45</v>
       </c>
       <c r="G32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H32">
         <v>74</v>
@@ -2927,13 +1499,13 @@
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B33">
         <v>843</v>
       </c>
       <c r="G33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H33">
         <v>972</v>
@@ -2970,7 +1542,7 @@
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B35">
         <v>61738</v>
@@ -2985,7 +1557,7 @@
         <v>11613</v>
       </c>
       <c r="G35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H35">
         <v>28832</v>
@@ -3002,7 +1574,7 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B36">
         <v>485562</v>
@@ -3014,7 +1586,7 @@
         <v>1079</v>
       </c>
       <c r="G36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H36">
         <v>310965</v>
@@ -3028,13 +1600,13 @@
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B37">
         <v>693065</v>
       </c>
       <c r="G37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H37">
         <v>472466</v>
@@ -3042,13 +1614,13 @@
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B38">
         <v>2394440</v>
       </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H38">
         <v>1248471</v>
@@ -3056,16 +1628,16 @@
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G40" t="s">
+        <v>24</v>
+      </c>
+      <c r="M40" t="s">
         <v>26</v>
       </c>
-      <c r="M40" t="s">
-        <v>28</v>
-      </c>
       <c r="S40" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
@@ -3073,13 +1645,13 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E41" t="s">
         <v>4</v>
@@ -3088,28 +1660,28 @@
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I41" t="s">
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M41" t="s">
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="O41" t="s">
         <v>2</v>
       </c>
       <c r="P41" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q41" t="s">
         <v>4</v>
@@ -3118,13 +1690,13 @@
         <v>1</v>
       </c>
       <c r="T41" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="U41" t="s">
         <v>2</v>
       </c>
       <c r="V41" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="W41" t="s">
         <v>4</v>
@@ -3132,7 +1704,7 @@
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B42">
         <v>132896</v>
@@ -3148,7 +1720,7 @@
         <v>44060</v>
       </c>
       <c r="G42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H42">
         <v>199935</v>
@@ -3164,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N42">
         <v>207030</v>
@@ -3180,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T42">
         <v>94117</v>
@@ -3198,7 +1770,7 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B43">
         <v>5095</v>
@@ -3210,7 +1782,7 @@
         <v>27</v>
       </c>
       <c r="G43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H43">
         <v>16504</v>
@@ -3222,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N43">
         <v>28030</v>
@@ -3237,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T43">
         <v>9197</v>
@@ -3251,7 +1823,7 @@
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B44">
         <v>2373</v>
@@ -3263,7 +1835,7 @@
         <v>51</v>
       </c>
       <c r="G44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H44">
         <v>7935</v>
@@ -3275,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N44">
         <v>2681</v>
@@ -3287,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T44">
         <v>3761</v>
@@ -3301,7 +1873,7 @@
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B45">
         <v>50</v>
@@ -3310,7 +1882,7 @@
         <v>14</v>
       </c>
       <c r="G45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H45">
         <v>53</v>
@@ -3322,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N45">
         <v>13</v>
@@ -3334,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T45">
         <v>52</v>
@@ -3345,13 +1917,13 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B46">
         <v>354</v>
       </c>
       <c r="G46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H46">
         <v>767</v>
@@ -3360,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N46">
         <v>394</v>
@@ -3369,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T46">
         <v>484</v>
@@ -3439,7 +2011,7 @@
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B48">
         <v>39992</v>
@@ -3454,7 +2026,7 @@
         <v>5517</v>
       </c>
       <c r="G48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H48">
         <v>29196</v>
@@ -3469,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="M48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N48">
         <v>40547</v>
@@ -3485,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="S48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T48">
         <v>28110</v>
@@ -3502,7 +2074,7 @@
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B49">
         <v>231899</v>
@@ -3514,7 +2086,7 @@
         <v>524</v>
       </c>
       <c r="G49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H49">
         <v>476392</v>
@@ -3529,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="M49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N49">
         <v>622139</v>
@@ -3544,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="S49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T49">
         <v>446516</v>
@@ -3558,25 +2130,25 @@
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B50">
         <v>415147</v>
       </c>
       <c r="G50" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H50">
         <v>740554</v>
       </c>
       <c r="M50" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N50">
         <v>913022</v>
       </c>
       <c r="S50" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T50">
         <v>592497</v>
@@ -3584,36 +2156,77 @@
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B51">
         <v>2261677</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H51">
         <v>1781906</v>
       </c>
       <c r="M51" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N51">
         <v>3229819</v>
       </c>
       <c r="S51" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T51">
         <v>1753306</v>
       </c>
     </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J53" t="s">
+        <v>35</v>
+      </c>
+      <c r="K53" t="s">
+        <v>36</v>
+      </c>
+      <c r="L53" t="s">
+        <v>37</v>
+      </c>
+      <c r="M53" t="s">
+        <v>38</v>
+      </c>
+      <c r="N53" t="s">
+        <v>39</v>
+      </c>
+      <c r="O53" t="s">
+        <v>40</v>
+      </c>
+      <c r="P53" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>42</v>
+      </c>
+      <c r="R53" t="s">
+        <v>43</v>
+      </c>
+      <c r="S53" t="s">
+        <v>44</v>
+      </c>
+      <c r="T53" t="s">
+        <v>45</v>
+      </c>
+      <c r="U53" t="s">
+        <v>46</v>
+      </c>
+      <c r="V53" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B54" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C54" t="s">
         <v>2</v>
@@ -3622,12 +2235,12 @@
         <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B55">
         <f t="shared" ref="B55:E62" si="0">B3+H3+N3+B16+H16+N16+B29+H29+B42+H42+N42+T42</f>
@@ -3645,10 +2258,49 @@
         <f t="shared" si="0"/>
         <v>148115</v>
       </c>
+      <c r="J55" t="s">
+        <v>5</v>
+      </c>
+      <c r="K55">
+        <v>67159</v>
+      </c>
+      <c r="L55">
+        <v>119289</v>
+      </c>
+      <c r="M55">
+        <v>86641</v>
+      </c>
+      <c r="N55">
+        <v>165458</v>
+      </c>
+      <c r="O55">
+        <v>84487</v>
+      </c>
+      <c r="P55">
+        <v>53784</v>
+      </c>
+      <c r="Q55">
+        <v>125095</v>
+      </c>
+      <c r="R55">
+        <v>98656</v>
+      </c>
+      <c r="S55">
+        <v>132896</v>
+      </c>
+      <c r="T55">
+        <v>199935</v>
+      </c>
+      <c r="U55">
+        <v>207030</v>
+      </c>
+      <c r="V55">
+        <v>94117</v>
+      </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
@@ -3665,11 +2317,50 @@
       <c r="E56">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+      <c r="J56" t="s">
+        <v>6</v>
+      </c>
+      <c r="K56">
+        <v>3137</v>
+      </c>
+      <c r="L56">
+        <v>8182</v>
+      </c>
+      <c r="M56">
+        <v>28214</v>
+      </c>
+      <c r="N56">
+        <v>14569</v>
+      </c>
+      <c r="O56">
+        <v>8748</v>
+      </c>
+      <c r="P56">
+        <v>12767</v>
+      </c>
+      <c r="Q56">
+        <v>10774</v>
+      </c>
+      <c r="R56">
+        <v>15237</v>
+      </c>
+      <c r="S56">
+        <v>5095</v>
+      </c>
+      <c r="T56">
+        <v>16504</v>
+      </c>
+      <c r="U56">
+        <v>28030</v>
+      </c>
+      <c r="V56">
+        <v>9197</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
@@ -3686,11 +2377,50 @@
       <c r="E57">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+      <c r="J57" t="s">
+        <v>7</v>
+      </c>
+      <c r="K57">
+        <v>1505</v>
+      </c>
+      <c r="L57">
+        <v>978</v>
+      </c>
+      <c r="M57">
+        <v>9954</v>
+      </c>
+      <c r="N57">
+        <v>6547</v>
+      </c>
+      <c r="O57">
+        <v>684</v>
+      </c>
+      <c r="P57">
+        <v>4672</v>
+      </c>
+      <c r="Q57">
+        <v>5309</v>
+      </c>
+      <c r="R57">
+        <v>8241</v>
+      </c>
+      <c r="S57">
+        <v>2373</v>
+      </c>
+      <c r="T57">
+        <v>7935</v>
+      </c>
+      <c r="U57">
+        <v>2681</v>
+      </c>
+      <c r="V57">
+        <v>3761</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
@@ -3707,27 +2437,105 @@
       <c r="E58">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+      <c r="J58" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58">
+        <v>28</v>
+      </c>
+      <c r="L58">
+        <v>15</v>
+      </c>
+      <c r="M58">
+        <v>252</v>
+      </c>
+      <c r="N58">
+        <v>92</v>
+      </c>
+      <c r="O58">
+        <v>7</v>
+      </c>
+      <c r="P58">
+        <v>113</v>
+      </c>
+      <c r="Q58">
+        <v>68</v>
+      </c>
+      <c r="R58">
+        <v>74</v>
+      </c>
+      <c r="S58">
+        <v>50</v>
+      </c>
+      <c r="T58">
+        <v>53</v>
+      </c>
+      <c r="U58">
+        <v>13</v>
+      </c>
+      <c r="V58">
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>9834</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J59" t="s">
+        <v>9</v>
+      </c>
+      <c r="K59">
+        <v>78</v>
+      </c>
+      <c r="L59">
         <v>10</v>
       </c>
-      <c r="B59">
-        <f t="shared" si="0"/>
-        <v>9834</v>
-      </c>
-      <c r="C59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="M59">
+        <v>3074</v>
+      </c>
+      <c r="N59">
+        <v>1371</v>
+      </c>
+      <c r="O59">
+        <v>22</v>
+      </c>
+      <c r="P59">
+        <v>1465</v>
+      </c>
+      <c r="Q59">
+        <v>843</v>
+      </c>
+      <c r="R59">
+        <v>972</v>
+      </c>
+      <c r="S59">
+        <v>354</v>
+      </c>
+      <c r="T59">
+        <v>767</v>
+      </c>
+      <c r="U59">
+        <v>394</v>
+      </c>
+      <c r="V59">
+        <v>484</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.25">
@@ -3750,10 +2558,49 @@
         <f t="shared" si="0"/>
         <v>4929</v>
       </c>
+      <c r="J60" t="s">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>1611</v>
+      </c>
+      <c r="L60">
+        <v>4897</v>
+      </c>
+      <c r="M60">
+        <v>15604</v>
+      </c>
+      <c r="N60">
+        <v>5025</v>
+      </c>
+      <c r="O60">
+        <v>2634</v>
+      </c>
+      <c r="P60">
+        <v>11815</v>
+      </c>
+      <c r="Q60">
+        <v>3676</v>
+      </c>
+      <c r="R60">
+        <v>9489</v>
+      </c>
+      <c r="S60">
+        <v>2488</v>
+      </c>
+      <c r="T60">
+        <v>9772</v>
+      </c>
+      <c r="U60">
+        <v>12188</v>
+      </c>
+      <c r="V60">
+        <v>10260</v>
+      </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
@@ -3770,11 +2617,50 @@
       <c r="E61">
         <f t="shared" si="0"/>
         <v>40949</v>
+      </c>
+      <c r="J61" t="s">
+        <v>10</v>
+      </c>
+      <c r="K61">
+        <v>11043</v>
+      </c>
+      <c r="L61">
+        <v>27199</v>
+      </c>
+      <c r="M61">
+        <v>10511</v>
+      </c>
+      <c r="N61">
+        <v>25304</v>
+      </c>
+      <c r="O61">
+        <v>11612</v>
+      </c>
+      <c r="P61">
+        <v>8383</v>
+      </c>
+      <c r="Q61">
+        <v>61738</v>
+      </c>
+      <c r="R61">
+        <v>28832</v>
+      </c>
+      <c r="S61">
+        <v>39992</v>
+      </c>
+      <c r="T61">
+        <v>29196</v>
+      </c>
+      <c r="U61">
+        <v>40547</v>
+      </c>
+      <c r="V61">
+        <v>28110</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B62">
         <f t="shared" si="0"/>
@@ -3792,15 +2678,68 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J62" t="s">
+        <v>11</v>
+      </c>
+      <c r="K62">
+        <v>103148</v>
+      </c>
+      <c r="L62">
+        <v>526030</v>
+      </c>
+      <c r="M62">
+        <v>715655</v>
+      </c>
+      <c r="N62">
+        <v>276435</v>
+      </c>
+      <c r="O62">
+        <v>192960</v>
+      </c>
+      <c r="P62">
+        <v>381195</v>
+      </c>
+      <c r="Q62">
+        <v>485562</v>
+      </c>
+      <c r="R62">
+        <v>310965</v>
+      </c>
+      <c r="S62">
+        <v>231899</v>
+      </c>
+      <c r="T62">
+        <v>476392</v>
+      </c>
+      <c r="U62">
+        <v>622139</v>
+      </c>
+      <c r="V62">
+        <v>446516</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J64" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="J65" t="s">
+        <v>5</v>
+      </c>
+      <c r="K65">
+        <v>4285</v>
+      </c>
+      <c r="L65">
+        <v>41209</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C66" t="s">
         <v>2</v>
@@ -3809,12 +2748,21 @@
         <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="J66" t="s">
+        <v>6</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B67">
         <f>B55/12</f>
@@ -3832,10 +2780,19 @@
         <f t="shared" si="1"/>
         <v>12342.916666666666</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J67" t="s">
+        <v>7</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B68">
         <f t="shared" ref="B68:E74" si="2">B56/12</f>
@@ -3853,10 +2810,19 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J68" t="s">
+        <v>8</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B69">
         <f t="shared" si="2"/>
@@ -3874,10 +2840,19 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J69" t="s">
+        <v>9</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B70">
         <f t="shared" si="2"/>
@@ -3895,10 +2870,19 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J70" t="s">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>96</v>
+      </c>
+      <c r="L70">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B71">
         <f t="shared" si="2"/>
@@ -3916,8 +2900,17 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J71" t="s">
+        <v>10</v>
+      </c>
+      <c r="K71">
+        <v>772</v>
+      </c>
+      <c r="L71">
+        <v>16291</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -3937,10 +2930,19 @@
         <f t="shared" si="2"/>
         <v>410.75</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J72" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72">
+        <v>9454</v>
+      </c>
+      <c r="L72">
+        <v>239309</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B73">
         <f t="shared" si="2"/>
@@ -3959,9 +2961,9 @@
         <v>3412.4166666666665</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B74">
         <f t="shared" si="2"/>
@@ -3983,6 +2985,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/prototypes/post-run-analysis/GA/GA_final_table.xlsx
+++ b/prototypes/post-run-analysis/GA/GA_final_table.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4AEC93-B7AD-47C6-829B-4F8C6F015D5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9155A3-2982-498F-994C-6006F8738902}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6510" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7440" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="kneaddata" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="58">
   <si>
     <t>Lactobacillus Murinus ASF361</t>
   </si>
@@ -173,6 +174,33 @@
   <si>
     <t>metapro</t>
   </si>
+  <si>
+    <t>samsa2</t>
+  </si>
+  <si>
+    <t>mpro</t>
+  </si>
+  <si>
+    <t>expected 1 cq n</t>
+  </si>
+  <si>
+    <t>mpro 1 cq n</t>
+  </si>
+  <si>
+    <t>samsa2 1 cq n</t>
+  </si>
+  <si>
+    <t>humann2 1 cq n</t>
+  </si>
+  <si>
+    <t>mpro 4 lq n</t>
+  </si>
+  <si>
+    <t>samsa2 4 lq n</t>
+  </si>
+  <si>
+    <t>humann2 4 lq n</t>
+  </si>
 </sst>
 </file>
 
@@ -224,6 +252,2810 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>kneaddata!$A$78</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clostridium ASF356</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>kneaddata!$B$77:$AZ$77</c:f>
+              <c:strCache>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>expected 1 cq n</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1 cq y</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1 lq n</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2 cq n</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2 cq y</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2 lq n</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 cm n</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3 cq n</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4 cm n</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4 cq n</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4 cq y</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4 lq n</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>mpro 1 cq n</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>mpro 4 lq n</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>samsa2 1 cq n</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>samsa2 4 lq n</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>humann2 1 cq n</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>humann2 4 lq n</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>kneaddata!$B$78:$AZ$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>67159</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>119289</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86641</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>165458</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84487</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53784</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>125095</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98656</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>132896</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>199935</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>207030</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>94117</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4285</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41209</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2202</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13398</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14325</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8418</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>61813</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5538</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>68551</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10660</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>37831</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>50279</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>878</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20272</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>895</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3657</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6767</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3833</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>22695</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2365</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>27185</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5824</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18524</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>22356</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>67635</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>83495</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>96668</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>18524</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>73086</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E8C8-4064-A3E0-A9F74507D6A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>kneaddata!$A$79</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clostridium ASF502</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>kneaddata!$B$77:$AZ$77</c:f>
+              <c:strCache>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>expected 1 cq n</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1 cq y</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1 lq n</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2 cq n</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2 cq y</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2 lq n</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 cm n</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3 cq n</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4 cm n</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4 cq n</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4 cq y</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4 lq n</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>mpro 1 cq n</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>mpro 4 lq n</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>samsa2 1 cq n</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>samsa2 4 lq n</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>humann2 1 cq n</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>humann2 4 lq n</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>kneaddata!$B$79:$AZ$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>3137</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8182</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28214</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14569</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8748</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12767</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10774</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15237</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5095</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16504</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28030</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9197</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E8C8-4064-A3E0-A9F74507D6A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>kneaddata!$A$80</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Eubacterium Plexicaudatum ASF492</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>kneaddata!$B$77:$AZ$77</c:f>
+              <c:strCache>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>expected 1 cq n</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1 cq y</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1 lq n</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2 cq n</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2 cq y</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2 lq n</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 cm n</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3 cq n</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4 cm n</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4 cq n</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4 cq y</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4 lq n</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>mpro 1 cq n</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>mpro 4 lq n</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>samsa2 1 cq n</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>samsa2 4 lq n</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>humann2 1 cq n</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>humann2 4 lq n</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>kneaddata!$B$80:$AZ$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>1505</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>978</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9954</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6547</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>684</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4672</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5309</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8241</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2373</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7935</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2681</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3761</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E8C8-4064-A3E0-A9F74507D6A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>kneaddata!$A$81</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Firmicutes ASF500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>kneaddata!$B$77:$AZ$77</c:f>
+              <c:strCache>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>expected 1 cq n</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1 cq y</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1 lq n</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2 cq n</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2 cq y</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2 lq n</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 cm n</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3 cq n</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4 cm n</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4 cq n</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4 cq y</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4 lq n</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>mpro 1 cq n</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>mpro 4 lq n</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>samsa2 1 cq n</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>samsa2 4 lq n</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>humann2 1 cq n</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>humann2 4 lq n</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>kneaddata!$B$81:$AZ$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E8C8-4064-A3E0-A9F74507D6A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>kneaddata!$A$82</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lactobacillus ASF360</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>kneaddata!$B$77:$AZ$77</c:f>
+              <c:strCache>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>expected 1 cq n</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1 cq y</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1 lq n</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2 cq n</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2 cq y</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2 lq n</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 cm n</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3 cq n</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4 cm n</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4 cq n</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4 cq y</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4 lq n</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>mpro 1 cq n</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>mpro 4 lq n</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>samsa2 1 cq n</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>samsa2 4 lq n</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>humann2 1 cq n</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>humann2 4 lq n</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>kneaddata!$B$82:$AZ$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3074</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1371</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1465</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>843</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>972</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>767</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>484</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E8C8-4064-A3E0-A9F74507D6A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>kneaddata!$A$83</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lactobacillus Murinus ASF361</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>kneaddata!$B$77:$AZ$77</c:f>
+              <c:strCache>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>expected 1 cq n</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1 cq y</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1 lq n</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2 cq n</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2 cq y</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2 lq n</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 cm n</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3 cq n</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4 cm n</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4 cq n</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4 cq y</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4 lq n</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>mpro 1 cq n</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>mpro 4 lq n</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>samsa2 1 cq n</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>samsa2 4 lq n</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>humann2 1 cq n</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>humann2 4 lq n</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>kneaddata!$B$83:$AZ$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>1611</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4897</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15604</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5025</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2634</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11815</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3676</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9489</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2488</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9772</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12188</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10260</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2810</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1233</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1080</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2175</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>551</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>911</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4948</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2076</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1485</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>595</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>763</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2535</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>902</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4497</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3029</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1301</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2535</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3265</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E8C8-4064-A3E0-A9F74507D6A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>kneaddata!$A$84</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mucispirillum Schaedleri ASF457</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>kneaddata!$B$77:$AZ$77</c:f>
+              <c:strCache>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>expected 1 cq n</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1 cq y</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1 lq n</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2 cq n</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2 cq y</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2 lq n</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 cm n</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3 cq n</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4 cm n</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4 cq n</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4 cq y</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4 lq n</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>mpro 1 cq n</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>mpro 4 lq n</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>samsa2 1 cq n</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>samsa2 4 lq n</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>humann2 1 cq n</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>humann2 4 lq n</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>kneaddata!$B$84:$AZ$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>11043</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10511</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11612</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8383</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61738</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28832</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39992</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29196</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40547</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28110</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>772</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16291</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>907</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2930</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>779</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15526</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1413</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6989</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7877</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8436</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9325</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1678</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6712</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>622</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3039</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5554</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4492</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>27136</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4595</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1271</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>22798</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10764</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5554</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>12950</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E8C8-4064-A3E0-A9F74507D6A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>kneaddata!$A$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Parabacteroides ASF519</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>kneaddata!$B$77:$AZ$77</c:f>
+              <c:strCache>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>expected 1 cq n</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1 cq y</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1 lq n</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2 cq n</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2 cq y</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2 lq n</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3 cm n</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3 cq n</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4 cm n</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4 cq n</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4 cq y</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4 lq n</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>mpro 1 cq n</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>mpro 4 lq n</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>samsa2 1 cq n</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>samsa2 4 lq n</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>humann2 1 cq n</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>humann2 4 lq n</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>kneaddata!$B$85:$AZ$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>103148</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>526030</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>715655</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>276435</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>192960</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>381195</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>485562</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>310965</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>231899</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>476392</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>622139</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>446516</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9454</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>239309</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5373</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16708</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42632</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16663</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>254769</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14816</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>118163</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13848</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>82957</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>99341</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2683</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1079</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>828</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>702</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>828</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-E8C8-4064-A3E0-A9F74507D6A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="350170208"/>
+        <c:axId val="444227952"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="350170208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="444227952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="444227952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="350170208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>99389</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>148257</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>204106</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D918C70-8337-4D9C-B21B-1E2676843F75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -488,10 +3320,3868 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B5248C-FBAB-4AA2-A1FF-4AC22F3E3EB6}">
+  <dimension ref="A1:AZ115"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="24.140625" customWidth="1"/>
+    <col min="19" max="19" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>67159</v>
+      </c>
+      <c r="C3">
+        <v>4285</v>
+      </c>
+      <c r="D3">
+        <v>878</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>119289</v>
+      </c>
+      <c r="I3">
+        <v>41209</v>
+      </c>
+      <c r="J3">
+        <f>20080 + 192</f>
+        <v>20272</v>
+      </c>
+      <c r="K3">
+        <v>67635</v>
+      </c>
+      <c r="M3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3">
+        <v>86641</v>
+      </c>
+      <c r="O3">
+        <v>2202</v>
+      </c>
+      <c r="P3">
+        <f>892 + 3</f>
+        <v>895</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>3137</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>8182</v>
+      </c>
+      <c r="I4">
+        <v>9</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4">
+        <v>28214</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>1505</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>978</v>
+      </c>
+      <c r="I5">
+        <v>37</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="M5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5">
+        <v>9954</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>28</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <v>15</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="M6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6">
+        <v>252</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>78</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7">
+        <v>3074</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>1611</v>
+      </c>
+      <c r="C8">
+        <v>96</v>
+      </c>
+      <c r="D8">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>4897</v>
+      </c>
+      <c r="I8">
+        <v>2810</v>
+      </c>
+      <c r="J8">
+        <v>1485</v>
+      </c>
+      <c r="K8">
+        <v>4497</v>
+      </c>
+      <c r="M8" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>15604</v>
+      </c>
+      <c r="O8">
+        <v>356</v>
+      </c>
+      <c r="P8">
+        <v>174</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>11043</v>
+      </c>
+      <c r="C9">
+        <v>772</v>
+      </c>
+      <c r="D9">
+        <v>179</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>27199</v>
+      </c>
+      <c r="I9">
+        <v>16291</v>
+      </c>
+      <c r="J9">
+        <v>9325</v>
+      </c>
+      <c r="K9">
+        <v>27136</v>
+      </c>
+      <c r="M9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9">
+        <v>10511</v>
+      </c>
+      <c r="O9">
+        <v>322</v>
+      </c>
+      <c r="P9">
+        <v>129</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>103148</v>
+      </c>
+      <c r="C10">
+        <v>9454</v>
+      </c>
+      <c r="D10">
+        <v>47</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10">
+        <v>526030</v>
+      </c>
+      <c r="I10">
+        <v>239309</v>
+      </c>
+      <c r="J10">
+        <v>2683</v>
+      </c>
+      <c r="M10" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10">
+        <v>715655</v>
+      </c>
+      <c r="O10">
+        <v>5373</v>
+      </c>
+      <c r="P10">
+        <v>32</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>187709</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11">
+        <v>686600</v>
+      </c>
+      <c r="M11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11">
+        <v>869905</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12">
+        <v>2058585</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12">
+        <v>2244751</v>
+      </c>
+      <c r="M12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12">
+        <v>500592</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>165458</v>
+      </c>
+      <c r="C16">
+        <v>13398</v>
+      </c>
+      <c r="D16">
+        <v>3657</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>84487</v>
+      </c>
+      <c r="I16">
+        <v>14325</v>
+      </c>
+      <c r="J16">
+        <f>6759 + 8</f>
+        <v>6767</v>
+      </c>
+      <c r="M16" t="s">
+        <v>5</v>
+      </c>
+      <c r="N16">
+        <v>53784</v>
+      </c>
+      <c r="O16">
+        <v>8418</v>
+      </c>
+      <c r="P16">
+        <f>3830 + 3</f>
+        <v>3833</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>14569</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>8748</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="M17" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17">
+        <v>12767</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>6547</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18">
+        <v>684</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>7</v>
+      </c>
+      <c r="N18">
+        <v>4672</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>92</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19">
+        <v>7</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="M19" t="s">
+        <v>8</v>
+      </c>
+      <c r="N19">
+        <v>113</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>1371</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20">
+        <v>22</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="M20" t="s">
+        <v>9</v>
+      </c>
+      <c r="N20">
+        <v>1465</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>5025</v>
+      </c>
+      <c r="C21">
+        <v>392</v>
+      </c>
+      <c r="D21">
+        <v>125</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>2634</v>
+      </c>
+      <c r="I21">
+        <v>1233</v>
+      </c>
+      <c r="J21">
+        <v>595</v>
+      </c>
+      <c r="M21" t="s">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>11815</v>
+      </c>
+      <c r="O21">
+        <v>1080</v>
+      </c>
+      <c r="P21">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>25304</v>
+      </c>
+      <c r="C22">
+        <v>907</v>
+      </c>
+      <c r="D22">
+        <v>348</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>11612</v>
+      </c>
+      <c r="I22">
+        <v>2930</v>
+      </c>
+      <c r="J22">
+        <v>1678</v>
+      </c>
+      <c r="K22">
+        <v>4595</v>
+      </c>
+      <c r="M22" t="s">
+        <v>10</v>
+      </c>
+      <c r="N22">
+        <v>8383</v>
+      </c>
+      <c r="O22">
+        <v>779</v>
+      </c>
+      <c r="P22">
+        <v>403</v>
+      </c>
+      <c r="Q22">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <v>276435</v>
+      </c>
+      <c r="C23">
+        <v>16708</v>
+      </c>
+      <c r="D23">
+        <v>200</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23">
+        <v>192960</v>
+      </c>
+      <c r="I23">
+        <v>42632</v>
+      </c>
+      <c r="J23">
+        <v>408</v>
+      </c>
+      <c r="M23" t="s">
+        <v>11</v>
+      </c>
+      <c r="N23">
+        <v>381195</v>
+      </c>
+      <c r="O23">
+        <v>16663</v>
+      </c>
+      <c r="P23">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>494801</v>
+      </c>
+      <c r="G24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24">
+        <v>301154</v>
+      </c>
+      <c r="M24" t="s">
+        <v>32</v>
+      </c>
+      <c r="N24">
+        <v>474194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>2640400</v>
+      </c>
+      <c r="G25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25">
+        <v>1720542</v>
+      </c>
+      <c r="M25" t="s">
+        <v>33</v>
+      </c>
+      <c r="N25">
+        <v>1105178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J28" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>125095</v>
+      </c>
+      <c r="C29">
+        <v>61813</v>
+      </c>
+      <c r="D29">
+        <f>111 + 22584</f>
+        <v>22695</v>
+      </c>
+      <c r="E29">
+        <v>83495</v>
+      </c>
+      <c r="G29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29">
+        <v>98656</v>
+      </c>
+      <c r="I29">
+        <v>5538</v>
+      </c>
+      <c r="J29">
+        <f>22 + 2343</f>
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>10774</v>
+      </c>
+      <c r="C30">
+        <v>50</v>
+      </c>
+      <c r="D30">
+        <v>25</v>
+      </c>
+      <c r="G30" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30">
+        <v>15237</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>5309</v>
+      </c>
+      <c r="G31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31">
+        <v>8241</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>68</v>
+      </c>
+      <c r="D32">
+        <v>45</v>
+      </c>
+      <c r="G32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32">
+        <v>74</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>843</v>
+      </c>
+      <c r="G33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>3676</v>
+      </c>
+      <c r="C34">
+        <v>2175</v>
+      </c>
+      <c r="D34">
+        <v>763</v>
+      </c>
+      <c r="E34">
+        <v>3029</v>
+      </c>
+      <c r="G34" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>9489</v>
+      </c>
+      <c r="I34">
+        <v>551</v>
+      </c>
+      <c r="J34">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35">
+        <v>61738</v>
+      </c>
+      <c r="C35">
+        <v>15526</v>
+      </c>
+      <c r="D35">
+        <v>6712</v>
+      </c>
+      <c r="E35">
+        <v>22798</v>
+      </c>
+      <c r="G35" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35">
+        <v>28832</v>
+      </c>
+      <c r="I35">
+        <v>1413</v>
+      </c>
+      <c r="J35">
+        <v>622</v>
+      </c>
+      <c r="K35">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36">
+        <v>485562</v>
+      </c>
+      <c r="C36">
+        <v>254769</v>
+      </c>
+      <c r="D36">
+        <v>1079</v>
+      </c>
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36">
+        <v>310965</v>
+      </c>
+      <c r="I36">
+        <v>14816</v>
+      </c>
+      <c r="J36">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37">
+        <v>693065</v>
+      </c>
+      <c r="G37" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37">
+        <v>472466</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38">
+        <v>2394440</v>
+      </c>
+      <c r="G38" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38">
+        <v>1248471</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" t="s">
+        <v>24</v>
+      </c>
+      <c r="M40" t="s">
+        <v>26</v>
+      </c>
+      <c r="S40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>34</v>
+      </c>
+      <c r="I41" t="s">
+        <v>2</v>
+      </c>
+      <c r="J41" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41" t="s">
+        <v>25</v>
+      </c>
+      <c r="M41" t="s">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>34</v>
+      </c>
+      <c r="O41" t="s">
+        <v>2</v>
+      </c>
+      <c r="P41" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>4</v>
+      </c>
+      <c r="S41" t="s">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s">
+        <v>34</v>
+      </c>
+      <c r="U41" t="s">
+        <v>2</v>
+      </c>
+      <c r="V41" t="s">
+        <v>16</v>
+      </c>
+      <c r="W41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>132896</v>
+      </c>
+      <c r="C42">
+        <v>68551</v>
+      </c>
+      <c r="D42">
+        <f xml:space="preserve"> 128 + 27057</f>
+        <v>27185</v>
+      </c>
+      <c r="E42">
+        <v>96668</v>
+      </c>
+      <c r="G42" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42">
+        <v>199935</v>
+      </c>
+      <c r="I42">
+        <v>10660</v>
+      </c>
+      <c r="J42">
+        <f>35 + 5789</f>
+        <v>5824</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="M42" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42">
+        <v>207030</v>
+      </c>
+      <c r="O42">
+        <v>37831</v>
+      </c>
+      <c r="P42">
+        <f>5 + 18519</f>
+        <v>18524</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="S42" t="s">
+        <v>5</v>
+      </c>
+      <c r="T42">
+        <v>94117</v>
+      </c>
+      <c r="U42">
+        <v>50279</v>
+      </c>
+      <c r="V42">
+        <f>83 + 22273</f>
+        <v>22356</v>
+      </c>
+      <c r="W42">
+        <v>73086</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <v>5095</v>
+      </c>
+      <c r="C43">
+        <v>25</v>
+      </c>
+      <c r="D43">
+        <v>27</v>
+      </c>
+      <c r="G43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43">
+        <v>16504</v>
+      </c>
+      <c r="I43">
+        <v>3</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="M43" t="s">
+        <v>6</v>
+      </c>
+      <c r="N43">
+        <v>28030</v>
+      </c>
+      <c r="O43">
+        <v>4</v>
+      </c>
+      <c r="P43">
+        <v>47</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="S43" t="s">
+        <v>6</v>
+      </c>
+      <c r="T43">
+        <v>9197</v>
+      </c>
+      <c r="U43">
+        <v>21</v>
+      </c>
+      <c r="V43">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44">
+        <v>2373</v>
+      </c>
+      <c r="C44">
+        <v>56</v>
+      </c>
+      <c r="D44">
+        <v>51</v>
+      </c>
+      <c r="G44" t="s">
+        <v>7</v>
+      </c>
+      <c r="H44">
+        <v>7935</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="M44" t="s">
+        <v>7</v>
+      </c>
+      <c r="N44">
+        <v>2681</v>
+      </c>
+      <c r="P44">
+        <v>2</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="S44" t="s">
+        <v>7</v>
+      </c>
+      <c r="T44">
+        <v>3761</v>
+      </c>
+      <c r="U44">
+        <v>25</v>
+      </c>
+      <c r="V44">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45">
+        <v>50</v>
+      </c>
+      <c r="D45">
+        <v>14</v>
+      </c>
+      <c r="G45" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45">
+        <v>53</v>
+      </c>
+      <c r="J45">
+        <v>24</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="M45" t="s">
+        <v>8</v>
+      </c>
+      <c r="N45">
+        <v>13</v>
+      </c>
+      <c r="P45">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="S45" t="s">
+        <v>8</v>
+      </c>
+      <c r="T45">
+        <v>52</v>
+      </c>
+      <c r="V45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46">
+        <v>354</v>
+      </c>
+      <c r="G46" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46">
+        <v>767</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="M46" t="s">
+        <v>9</v>
+      </c>
+      <c r="N46">
+        <v>394</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="S46" t="s">
+        <v>9</v>
+      </c>
+      <c r="T46">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>2488</v>
+      </c>
+      <c r="C47">
+        <v>911</v>
+      </c>
+      <c r="D47">
+        <v>320</v>
+      </c>
+      <c r="E47">
+        <v>1301</v>
+      </c>
+      <c r="G47" t="s">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>9772</v>
+      </c>
+      <c r="I47">
+        <v>420</v>
+      </c>
+      <c r="J47">
+        <v>121</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="M47" t="s">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>12188</v>
+      </c>
+      <c r="O47">
+        <v>4948</v>
+      </c>
+      <c r="P47">
+        <v>2535</v>
+      </c>
+      <c r="Q47">
+        <v>13062</v>
+      </c>
+      <c r="S47" t="s">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>10260</v>
+      </c>
+      <c r="U47">
+        <v>2076</v>
+      </c>
+      <c r="V47">
+        <v>902</v>
+      </c>
+      <c r="W47">
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48">
+        <v>39992</v>
+      </c>
+      <c r="C48">
+        <v>6989</v>
+      </c>
+      <c r="D48">
+        <v>3039</v>
+      </c>
+      <c r="E48">
+        <v>10764</v>
+      </c>
+      <c r="G48" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48">
+        <v>29196</v>
+      </c>
+      <c r="I48">
+        <v>1150</v>
+      </c>
+      <c r="J48">
+        <v>544</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="M48" t="s">
+        <v>10</v>
+      </c>
+      <c r="N48">
+        <v>40547</v>
+      </c>
+      <c r="O48">
+        <v>7877</v>
+      </c>
+      <c r="P48">
+        <f>5554</f>
+        <v>5554</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="S48" t="s">
+        <v>10</v>
+      </c>
+      <c r="T48">
+        <v>28110</v>
+      </c>
+      <c r="U48">
+        <v>8436</v>
+      </c>
+      <c r="V48">
+        <v>4492</v>
+      </c>
+      <c r="W48">
+        <v>12950</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49">
+        <v>231899</v>
+      </c>
+      <c r="C49">
+        <v>118163</v>
+      </c>
+      <c r="D49">
+        <v>524</v>
+      </c>
+      <c r="G49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49">
+        <v>476392</v>
+      </c>
+      <c r="I49">
+        <v>13848</v>
+      </c>
+      <c r="J49">
+        <v>174</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="M49" t="s">
+        <v>11</v>
+      </c>
+      <c r="N49">
+        <v>622139</v>
+      </c>
+      <c r="O49">
+        <v>82957</v>
+      </c>
+      <c r="P49">
+        <v>828</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="S49" t="s">
+        <v>11</v>
+      </c>
+      <c r="T49">
+        <v>446516</v>
+      </c>
+      <c r="U49">
+        <v>99341</v>
+      </c>
+      <c r="V49">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50">
+        <v>415147</v>
+      </c>
+      <c r="G50" t="s">
+        <v>32</v>
+      </c>
+      <c r="H50">
+        <v>740554</v>
+      </c>
+      <c r="M50" t="s">
+        <v>32</v>
+      </c>
+      <c r="N50">
+        <v>913022</v>
+      </c>
+      <c r="S50" t="s">
+        <v>32</v>
+      </c>
+      <c r="T50">
+        <v>592497</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51">
+        <v>2261677</v>
+      </c>
+      <c r="G51" t="s">
+        <v>33</v>
+      </c>
+      <c r="H51">
+        <v>1781906</v>
+      </c>
+      <c r="M51" t="s">
+        <v>33</v>
+      </c>
+      <c r="N51">
+        <v>3229819</v>
+      </c>
+      <c r="S51" t="s">
+        <v>33</v>
+      </c>
+      <c r="T51">
+        <v>1753306</v>
+      </c>
+      <c r="X51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ref="B55:E62" si="0">B3+H3+N3+B16+H16+N16+B29+H29+B42+H42+N42+T42</f>
+        <v>1434547</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>318509</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>135251</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>320884</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>160454</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>54640</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>817</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>9834</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>89459</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>17048</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>7763</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>25154</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>322467</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>63392</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>33025</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>81562</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>4768896</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>914033</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>7053</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>34</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67">
+        <f>B55/12</f>
+        <v>119545.58333333333</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:E67" si="1">C55/12</f>
+        <v>26542.416666666668</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="1"/>
+        <v>11270.916666666666</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="1"/>
+        <v>26740.333333333332</v>
+      </c>
+    </row>
+    <row r="68" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ref="B68:E74" si="2">B56/12</f>
+        <v>13371.166666666666</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="2"/>
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="2"/>
+        <v>4553.333333333333</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="2"/>
+        <v>7.25</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="2"/>
+        <v>68.083333333333329</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="2"/>
+        <v>9.5833333333333339</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="2"/>
+        <v>819.5</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="2"/>
+        <v>7454.916666666667</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="2"/>
+        <v>1420.6666666666667</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="2"/>
+        <v>646.91666666666663</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="2"/>
+        <v>2096.1666666666665</v>
+      </c>
+    </row>
+    <row r="73" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="2"/>
+        <v>26872.25</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="2"/>
+        <v>5282.666666666667</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="2"/>
+        <v>2752.0833333333335</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="2"/>
+        <v>6796.833333333333</v>
+      </c>
+    </row>
+    <row r="74" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="2"/>
+        <v>397408</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="2"/>
+        <v>76169.416666666672</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="2"/>
+        <v>587.75</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>35</v>
+      </c>
+      <c r="O76" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>51</v>
+      </c>
+      <c r="C77" t="s">
+        <v>37</v>
+      </c>
+      <c r="D77" t="s">
+        <v>38</v>
+      </c>
+      <c r="E77" t="s">
+        <v>39</v>
+      </c>
+      <c r="F77" t="s">
+        <v>40</v>
+      </c>
+      <c r="G77" t="s">
+        <v>41</v>
+      </c>
+      <c r="H77" t="s">
+        <v>42</v>
+      </c>
+      <c r="I77" t="s">
+        <v>43</v>
+      </c>
+      <c r="J77" t="s">
+        <v>44</v>
+      </c>
+      <c r="K77" t="s">
+        <v>45</v>
+      </c>
+      <c r="L77" t="s">
+        <v>46</v>
+      </c>
+      <c r="M77" t="s">
+        <v>47</v>
+      </c>
+      <c r="O77" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM77" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO77" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ77" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78">
+        <f>B3</f>
+        <v>67159</v>
+      </c>
+      <c r="C78">
+        <f>H3</f>
+        <v>119289</v>
+      </c>
+      <c r="D78">
+        <f>N3</f>
+        <v>86641</v>
+      </c>
+      <c r="E78">
+        <f>B16</f>
+        <v>165458</v>
+      </c>
+      <c r="F78">
+        <f>H16</f>
+        <v>84487</v>
+      </c>
+      <c r="G78">
+        <f>N16</f>
+        <v>53784</v>
+      </c>
+      <c r="H78">
+        <f>B29</f>
+        <v>125095</v>
+      </c>
+      <c r="I78">
+        <f>H29</f>
+        <v>98656</v>
+      </c>
+      <c r="J78">
+        <f>B42</f>
+        <v>132896</v>
+      </c>
+      <c r="K78">
+        <f>H42</f>
+        <v>199935</v>
+      </c>
+      <c r="L78">
+        <f>N42</f>
+        <v>207030</v>
+      </c>
+      <c r="M78">
+        <f>T42</f>
+        <v>94117</v>
+      </c>
+      <c r="O78">
+        <f>C3</f>
+        <v>4285</v>
+      </c>
+      <c r="P78">
+        <f>I3</f>
+        <v>41209</v>
+      </c>
+      <c r="Q78">
+        <f>O3</f>
+        <v>2202</v>
+      </c>
+      <c r="R78">
+        <f>C16</f>
+        <v>13398</v>
+      </c>
+      <c r="S78">
+        <f>I16</f>
+        <v>14325</v>
+      </c>
+      <c r="T78">
+        <f>O16</f>
+        <v>8418</v>
+      </c>
+      <c r="U78">
+        <f>C29</f>
+        <v>61813</v>
+      </c>
+      <c r="V78">
+        <f>I29</f>
+        <v>5538</v>
+      </c>
+      <c r="W78">
+        <f>C42</f>
+        <v>68551</v>
+      </c>
+      <c r="X78">
+        <f>I42</f>
+        <v>10660</v>
+      </c>
+      <c r="Y78">
+        <f>O42</f>
+        <v>37831</v>
+      </c>
+      <c r="Z78">
+        <f>U42</f>
+        <v>50279</v>
+      </c>
+      <c r="AB78">
+        <f>D3</f>
+        <v>878</v>
+      </c>
+      <c r="AC78">
+        <f>J3</f>
+        <v>20272</v>
+      </c>
+      <c r="AD78">
+        <f>P3</f>
+        <v>895</v>
+      </c>
+      <c r="AE78">
+        <f>D16</f>
+        <v>3657</v>
+      </c>
+      <c r="AF78">
+        <f>J16</f>
+        <v>6767</v>
+      </c>
+      <c r="AG78">
+        <f>P16</f>
+        <v>3833</v>
+      </c>
+      <c r="AH78">
+        <f>D29</f>
+        <v>22695</v>
+      </c>
+      <c r="AI78">
+        <f>J29</f>
+        <v>2365</v>
+      </c>
+      <c r="AJ78">
+        <f>D42</f>
+        <v>27185</v>
+      </c>
+      <c r="AK78">
+        <f>J42</f>
+        <v>5824</v>
+      </c>
+      <c r="AL78">
+        <f>P42</f>
+        <v>18524</v>
+      </c>
+      <c r="AM78">
+        <f>V42</f>
+        <v>22356</v>
+      </c>
+      <c r="AO78">
+        <f>E3</f>
+        <v>0</v>
+      </c>
+      <c r="AP78">
+        <f>K3</f>
+        <v>67635</v>
+      </c>
+      <c r="AQ78">
+        <f>Q3</f>
+        <v>0</v>
+      </c>
+      <c r="AR78">
+        <f>E16</f>
+        <v>0</v>
+      </c>
+      <c r="AS78">
+        <f>K16</f>
+        <v>0</v>
+      </c>
+      <c r="AT78">
+        <f>Q16</f>
+        <v>0</v>
+      </c>
+      <c r="AU78">
+        <f>E29</f>
+        <v>83495</v>
+      </c>
+      <c r="AV78">
+        <f>K29</f>
+        <v>0</v>
+      </c>
+      <c r="AW78">
+        <f>E42</f>
+        <v>96668</v>
+      </c>
+      <c r="AX78">
+        <f>K42</f>
+        <v>0</v>
+      </c>
+      <c r="AY78">
+        <f>P42</f>
+        <v>18524</v>
+      </c>
+      <c r="AZ78">
+        <f>W42</f>
+        <v>73086</v>
+      </c>
+    </row>
+    <row r="79" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79">
+        <f>B4</f>
+        <v>3137</v>
+      </c>
+      <c r="C79">
+        <f>H4</f>
+        <v>8182</v>
+      </c>
+      <c r="D79">
+        <f>N4</f>
+        <v>28214</v>
+      </c>
+      <c r="E79">
+        <f>B17</f>
+        <v>14569</v>
+      </c>
+      <c r="F79">
+        <f>H17</f>
+        <v>8748</v>
+      </c>
+      <c r="G79">
+        <f>N17</f>
+        <v>12767</v>
+      </c>
+      <c r="H79">
+        <f>B30</f>
+        <v>10774</v>
+      </c>
+      <c r="I79">
+        <f>H30</f>
+        <v>15237</v>
+      </c>
+      <c r="J79">
+        <f>B43</f>
+        <v>5095</v>
+      </c>
+      <c r="K79">
+        <f>H43</f>
+        <v>16504</v>
+      </c>
+      <c r="L79">
+        <f>N43</f>
+        <v>28030</v>
+      </c>
+      <c r="M79">
+        <f>T43</f>
+        <v>9197</v>
+      </c>
+      <c r="O79">
+        <f>C4</f>
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <f>I4</f>
+        <v>9</v>
+      </c>
+      <c r="Q79">
+        <f>O4</f>
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <f>C17</f>
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <f>I17</f>
+        <v>3</v>
+      </c>
+      <c r="T79">
+        <f>O17</f>
+        <v>1</v>
+      </c>
+      <c r="U79">
+        <f>C30</f>
+        <v>50</v>
+      </c>
+      <c r="V79">
+        <f>I30</f>
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <f>C43</f>
+        <v>25</v>
+      </c>
+      <c r="X79">
+        <f>I43</f>
+        <v>3</v>
+      </c>
+      <c r="Y79">
+        <f>O43</f>
+        <v>4</v>
+      </c>
+      <c r="Z79">
+        <f>U43</f>
+        <v>21</v>
+      </c>
+      <c r="AB79">
+        <f>D4</f>
+        <v>0</v>
+      </c>
+      <c r="AC79">
+        <f>J4</f>
+        <v>1</v>
+      </c>
+      <c r="AD79">
+        <f>P4</f>
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <f>D17</f>
+        <v>0</v>
+      </c>
+      <c r="AF79">
+        <f>J17</f>
+        <v>2</v>
+      </c>
+      <c r="AG79">
+        <f>P17</f>
+        <v>0</v>
+      </c>
+      <c r="AH79">
+        <f>D30</f>
+        <v>25</v>
+      </c>
+      <c r="AI79">
+        <f>J30</f>
+        <v>1</v>
+      </c>
+      <c r="AJ79">
+        <f>D43</f>
+        <v>27</v>
+      </c>
+      <c r="AK79">
+        <f>J43</f>
+        <v>0</v>
+      </c>
+      <c r="AL79">
+        <f>P43</f>
+        <v>47</v>
+      </c>
+      <c r="AM79">
+        <f>V43</f>
+        <v>17</v>
+      </c>
+      <c r="AO79">
+        <f>E4</f>
+        <v>0</v>
+      </c>
+      <c r="AP79">
+        <f>K4</f>
+        <v>0</v>
+      </c>
+      <c r="AQ79">
+        <f>Q4</f>
+        <v>0</v>
+      </c>
+      <c r="AR79">
+        <f>E17</f>
+        <v>0</v>
+      </c>
+      <c r="AS79">
+        <f>K17</f>
+        <v>0</v>
+      </c>
+      <c r="AT79">
+        <f>Q17</f>
+        <v>0</v>
+      </c>
+      <c r="AU79">
+        <f>E30</f>
+        <v>0</v>
+      </c>
+      <c r="AV79">
+        <f>K30</f>
+        <v>0</v>
+      </c>
+      <c r="AW79">
+        <f>E43</f>
+        <v>0</v>
+      </c>
+      <c r="AX79">
+        <f>K43</f>
+        <v>0</v>
+      </c>
+      <c r="AY79">
+        <f>P43</f>
+        <v>47</v>
+      </c>
+      <c r="AZ79">
+        <f>W43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80">
+        <f>B5</f>
+        <v>1505</v>
+      </c>
+      <c r="C80">
+        <f>H5</f>
+        <v>978</v>
+      </c>
+      <c r="D80">
+        <f>N5</f>
+        <v>9954</v>
+      </c>
+      <c r="E80">
+        <f>B18</f>
+        <v>6547</v>
+      </c>
+      <c r="F80">
+        <f>H18</f>
+        <v>684</v>
+      </c>
+      <c r="G80">
+        <f>N18</f>
+        <v>4672</v>
+      </c>
+      <c r="H80">
+        <f>B31</f>
+        <v>5309</v>
+      </c>
+      <c r="I80">
+        <f>H31</f>
+        <v>8241</v>
+      </c>
+      <c r="J80">
+        <f>B44</f>
+        <v>2373</v>
+      </c>
+      <c r="K80">
+        <f>H44</f>
+        <v>7935</v>
+      </c>
+      <c r="L80">
+        <f>N44</f>
+        <v>2681</v>
+      </c>
+      <c r="M80">
+        <f>T44</f>
+        <v>3761</v>
+      </c>
+      <c r="O80">
+        <f>C5</f>
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <f>I5</f>
+        <v>37</v>
+      </c>
+      <c r="Q80">
+        <f>O5</f>
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <f>C18</f>
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <f>I18</f>
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <f>O18</f>
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <f>C31</f>
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <f>I31</f>
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <f>C44</f>
+        <v>56</v>
+      </c>
+      <c r="X80">
+        <f>I44</f>
+        <v>2</v>
+      </c>
+      <c r="Y80">
+        <f>O44</f>
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <f>U44</f>
+        <v>25</v>
+      </c>
+      <c r="AB80">
+        <f>D5</f>
+        <v>0</v>
+      </c>
+      <c r="AC80">
+        <f>J5</f>
+        <v>5</v>
+      </c>
+      <c r="AD80">
+        <f>P5</f>
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <f>D18</f>
+        <v>0</v>
+      </c>
+      <c r="AF80">
+        <f>J18</f>
+        <v>0</v>
+      </c>
+      <c r="AG80">
+        <f>P18</f>
+        <v>0</v>
+      </c>
+      <c r="AH80">
+        <f>D31</f>
+        <v>0</v>
+      </c>
+      <c r="AI80">
+        <f>J31</f>
+        <v>1</v>
+      </c>
+      <c r="AJ80">
+        <f>D44</f>
+        <v>51</v>
+      </c>
+      <c r="AK80">
+        <f>J44</f>
+        <v>0</v>
+      </c>
+      <c r="AL80">
+        <f>P44</f>
+        <v>2</v>
+      </c>
+      <c r="AM80">
+        <f>V44</f>
+        <v>28</v>
+      </c>
+      <c r="AO80">
+        <f>E5</f>
+        <v>0</v>
+      </c>
+      <c r="AP80">
+        <f>K5</f>
+        <v>0</v>
+      </c>
+      <c r="AQ80">
+        <f>Q5</f>
+        <v>0</v>
+      </c>
+      <c r="AR80">
+        <f>E18</f>
+        <v>0</v>
+      </c>
+      <c r="AS80">
+        <f>K18</f>
+        <v>0</v>
+      </c>
+      <c r="AT80">
+        <f>Q18</f>
+        <v>0</v>
+      </c>
+      <c r="AU80">
+        <f>E31</f>
+        <v>0</v>
+      </c>
+      <c r="AV80">
+        <f>K31</f>
+        <v>0</v>
+      </c>
+      <c r="AW80">
+        <f>E44</f>
+        <v>0</v>
+      </c>
+      <c r="AX80">
+        <f>K44</f>
+        <v>0</v>
+      </c>
+      <c r="AY80">
+        <f>P44</f>
+        <v>2</v>
+      </c>
+      <c r="AZ80">
+        <f>W44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81">
+        <f>B6</f>
+        <v>28</v>
+      </c>
+      <c r="C81">
+        <f>H6</f>
+        <v>15</v>
+      </c>
+      <c r="D81">
+        <f>N6</f>
+        <v>252</v>
+      </c>
+      <c r="E81">
+        <f>B19</f>
+        <v>92</v>
+      </c>
+      <c r="F81">
+        <f>H19</f>
+        <v>7</v>
+      </c>
+      <c r="G81">
+        <f>N19</f>
+        <v>113</v>
+      </c>
+      <c r="H81">
+        <f>B32</f>
+        <v>68</v>
+      </c>
+      <c r="I81">
+        <f>H32</f>
+        <v>74</v>
+      </c>
+      <c r="J81">
+        <f>B45</f>
+        <v>50</v>
+      </c>
+      <c r="K81">
+        <f>H45</f>
+        <v>53</v>
+      </c>
+      <c r="L81">
+        <f>N45</f>
+        <v>13</v>
+      </c>
+      <c r="M81">
+        <f>T45</f>
+        <v>52</v>
+      </c>
+      <c r="O81">
+        <f>C6</f>
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <f>I6</f>
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <f>O6</f>
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <f>C19</f>
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <f>I19</f>
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <f>O19</f>
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <f>C32</f>
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <f>I32</f>
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <f>C45</f>
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <f>I45</f>
+        <v>0</v>
+      </c>
+      <c r="Y81">
+        <f>O45</f>
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <f>U45</f>
+        <v>0</v>
+      </c>
+      <c r="AB81">
+        <f>D6</f>
+        <v>0</v>
+      </c>
+      <c r="AC81">
+        <f>J6</f>
+        <v>3</v>
+      </c>
+      <c r="AD81">
+        <f>P6</f>
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <f>D19</f>
+        <v>0</v>
+      </c>
+      <c r="AF81">
+        <f>J19</f>
+        <v>2</v>
+      </c>
+      <c r="AG81">
+        <f>P19</f>
+        <v>0</v>
+      </c>
+      <c r="AH81">
+        <f>D32</f>
+        <v>45</v>
+      </c>
+      <c r="AI81">
+        <f>J32</f>
+        <v>1</v>
+      </c>
+      <c r="AJ81">
+        <f>D45</f>
+        <v>14</v>
+      </c>
+      <c r="AK81">
+        <f>J45</f>
+        <v>24</v>
+      </c>
+      <c r="AL81">
+        <f>P45</f>
+        <v>1</v>
+      </c>
+      <c r="AM81">
+        <f>V45</f>
+        <v>25</v>
+      </c>
+      <c r="AO81">
+        <f>E6</f>
+        <v>0</v>
+      </c>
+      <c r="AP81">
+        <f>K6</f>
+        <v>0</v>
+      </c>
+      <c r="AQ81">
+        <f>Q6</f>
+        <v>0</v>
+      </c>
+      <c r="AR81">
+        <f>E19</f>
+        <v>0</v>
+      </c>
+      <c r="AS81">
+        <f>K19</f>
+        <v>0</v>
+      </c>
+      <c r="AT81">
+        <f>Q19</f>
+        <v>0</v>
+      </c>
+      <c r="AU81">
+        <f>E32</f>
+        <v>0</v>
+      </c>
+      <c r="AV81">
+        <f>K32</f>
+        <v>0</v>
+      </c>
+      <c r="AW81">
+        <f>E45</f>
+        <v>0</v>
+      </c>
+      <c r="AX81">
+        <f>K45</f>
+        <v>0</v>
+      </c>
+      <c r="AY81">
+        <f>P45</f>
+        <v>1</v>
+      </c>
+      <c r="AZ81">
+        <f>W45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82">
+        <f>B7</f>
+        <v>78</v>
+      </c>
+      <c r="C82">
+        <f>H7</f>
+        <v>10</v>
+      </c>
+      <c r="D82">
+        <f>N7</f>
+        <v>3074</v>
+      </c>
+      <c r="E82">
+        <f>B20</f>
+        <v>1371</v>
+      </c>
+      <c r="F82">
+        <f>H20</f>
+        <v>22</v>
+      </c>
+      <c r="G82">
+        <f>N20</f>
+        <v>1465</v>
+      </c>
+      <c r="H82">
+        <f>B33</f>
+        <v>843</v>
+      </c>
+      <c r="I82">
+        <f>H33</f>
+        <v>972</v>
+      </c>
+      <c r="J82">
+        <f>B46</f>
+        <v>354</v>
+      </c>
+      <c r="K82">
+        <f>H46</f>
+        <v>767</v>
+      </c>
+      <c r="L82">
+        <f>N46</f>
+        <v>394</v>
+      </c>
+      <c r="M82">
+        <f>T46</f>
+        <v>484</v>
+      </c>
+      <c r="O82">
+        <f>C7</f>
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <f>I7</f>
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <f>O7</f>
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <f>C20</f>
+        <v>0</v>
+      </c>
+      <c r="S82">
+        <f>I20</f>
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <f>O20</f>
+        <v>0</v>
+      </c>
+      <c r="U82">
+        <f>C33</f>
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <f>I33</f>
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <f>C46</f>
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <f>I46</f>
+        <v>0</v>
+      </c>
+      <c r="Y82">
+        <f>O46</f>
+        <v>0</v>
+      </c>
+      <c r="Z82">
+        <f>U46</f>
+        <v>0</v>
+      </c>
+      <c r="AB82">
+        <f>D7</f>
+        <v>0</v>
+      </c>
+      <c r="AC82">
+        <f>J7</f>
+        <v>0</v>
+      </c>
+      <c r="AD82">
+        <f>P7</f>
+        <v>0</v>
+      </c>
+      <c r="AE82">
+        <f>D20</f>
+        <v>0</v>
+      </c>
+      <c r="AF82">
+        <f>J20</f>
+        <v>0</v>
+      </c>
+      <c r="AG82">
+        <f>P20</f>
+        <v>0</v>
+      </c>
+      <c r="AH82">
+        <f>D33</f>
+        <v>0</v>
+      </c>
+      <c r="AI82">
+        <f>J33</f>
+        <v>0</v>
+      </c>
+      <c r="AJ82">
+        <f>D46</f>
+        <v>0</v>
+      </c>
+      <c r="AK82">
+        <f>J46</f>
+        <v>0</v>
+      </c>
+      <c r="AL82">
+        <f>P46</f>
+        <v>0</v>
+      </c>
+      <c r="AM82">
+        <f>V46</f>
+        <v>0</v>
+      </c>
+      <c r="AO82">
+        <f>E7</f>
+        <v>0</v>
+      </c>
+      <c r="AP82">
+        <f>K7</f>
+        <v>0</v>
+      </c>
+      <c r="AQ82">
+        <f>Q7</f>
+        <v>0</v>
+      </c>
+      <c r="AR82">
+        <f>E20</f>
+        <v>0</v>
+      </c>
+      <c r="AS82">
+        <f>K20</f>
+        <v>0</v>
+      </c>
+      <c r="AT82">
+        <f>Q20</f>
+        <v>0</v>
+      </c>
+      <c r="AU82">
+        <f>E33</f>
+        <v>0</v>
+      </c>
+      <c r="AV82">
+        <f>K33</f>
+        <v>0</v>
+      </c>
+      <c r="AW82">
+        <f>E46</f>
+        <v>0</v>
+      </c>
+      <c r="AX82">
+        <f>K46</f>
+        <v>0</v>
+      </c>
+      <c r="AY82">
+        <f>P46</f>
+        <v>0</v>
+      </c>
+      <c r="AZ82">
+        <f>W46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <f>B8</f>
+        <v>1611</v>
+      </c>
+      <c r="C83">
+        <f>H8</f>
+        <v>4897</v>
+      </c>
+      <c r="D83">
+        <f>N8</f>
+        <v>15604</v>
+      </c>
+      <c r="E83">
+        <f>B21</f>
+        <v>5025</v>
+      </c>
+      <c r="F83">
+        <f>H21</f>
+        <v>2634</v>
+      </c>
+      <c r="G83">
+        <f>N21</f>
+        <v>11815</v>
+      </c>
+      <c r="H83">
+        <f>B34</f>
+        <v>3676</v>
+      </c>
+      <c r="I83">
+        <f>H34</f>
+        <v>9489</v>
+      </c>
+      <c r="J83">
+        <f>B47</f>
+        <v>2488</v>
+      </c>
+      <c r="K83">
+        <f>H47</f>
+        <v>9772</v>
+      </c>
+      <c r="L83">
+        <f>N47</f>
+        <v>12188</v>
+      </c>
+      <c r="M83">
+        <f>T47</f>
+        <v>10260</v>
+      </c>
+      <c r="O83">
+        <f>C8</f>
+        <v>96</v>
+      </c>
+      <c r="P83">
+        <f>I8</f>
+        <v>2810</v>
+      </c>
+      <c r="Q83">
+        <f>O8</f>
+        <v>356</v>
+      </c>
+      <c r="R83">
+        <f>C21</f>
+        <v>392</v>
+      </c>
+      <c r="S83">
+        <f>I21</f>
+        <v>1233</v>
+      </c>
+      <c r="T83">
+        <f>O21</f>
+        <v>1080</v>
+      </c>
+      <c r="U83">
+        <f>C34</f>
+        <v>2175</v>
+      </c>
+      <c r="V83">
+        <f>I34</f>
+        <v>551</v>
+      </c>
+      <c r="W83">
+        <f>C47</f>
+        <v>911</v>
+      </c>
+      <c r="X83">
+        <f>I47</f>
+        <v>420</v>
+      </c>
+      <c r="Y83">
+        <f>O47</f>
+        <v>4948</v>
+      </c>
+      <c r="Z83">
+        <f>U47</f>
+        <v>2076</v>
+      </c>
+      <c r="AB83">
+        <f>D8</f>
+        <v>16</v>
+      </c>
+      <c r="AC83">
+        <f>J8</f>
+        <v>1485</v>
+      </c>
+      <c r="AD83">
+        <f>P8</f>
+        <v>174</v>
+      </c>
+      <c r="AE83">
+        <f>D21</f>
+        <v>125</v>
+      </c>
+      <c r="AF83">
+        <f>J21</f>
+        <v>595</v>
+      </c>
+      <c r="AG83">
+        <f>P21</f>
+        <v>490</v>
+      </c>
+      <c r="AH83">
+        <f>D34</f>
+        <v>763</v>
+      </c>
+      <c r="AI83">
+        <f>J34</f>
+        <v>237</v>
+      </c>
+      <c r="AJ83">
+        <f>D47</f>
+        <v>320</v>
+      </c>
+      <c r="AK83">
+        <f>J47</f>
+        <v>121</v>
+      </c>
+      <c r="AL83">
+        <f>P47</f>
+        <v>2535</v>
+      </c>
+      <c r="AM83">
+        <f>V47</f>
+        <v>902</v>
+      </c>
+      <c r="AO83">
+        <f>E8</f>
+        <v>0</v>
+      </c>
+      <c r="AP83">
+        <f>K8</f>
+        <v>4497</v>
+      </c>
+      <c r="AQ83">
+        <f>Q8</f>
+        <v>0</v>
+      </c>
+      <c r="AR83">
+        <f>E21</f>
+        <v>0</v>
+      </c>
+      <c r="AS83">
+        <f>K21</f>
+        <v>0</v>
+      </c>
+      <c r="AT83">
+        <f>Q21</f>
+        <v>0</v>
+      </c>
+      <c r="AU83">
+        <f>E34</f>
+        <v>3029</v>
+      </c>
+      <c r="AV83">
+        <f>K34</f>
+        <v>0</v>
+      </c>
+      <c r="AW83">
+        <f>E47</f>
+        <v>1301</v>
+      </c>
+      <c r="AX83">
+        <f>K47</f>
+        <v>0</v>
+      </c>
+      <c r="AY83">
+        <f>P47</f>
+        <v>2535</v>
+      </c>
+      <c r="AZ83">
+        <f>W47</f>
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="84" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84">
+        <f>B9</f>
+        <v>11043</v>
+      </c>
+      <c r="C84">
+        <f>H9</f>
+        <v>27199</v>
+      </c>
+      <c r="D84">
+        <f>N9</f>
+        <v>10511</v>
+      </c>
+      <c r="E84">
+        <f>B22</f>
+        <v>25304</v>
+      </c>
+      <c r="F84">
+        <f>H22</f>
+        <v>11612</v>
+      </c>
+      <c r="G84">
+        <f>N22</f>
+        <v>8383</v>
+      </c>
+      <c r="H84">
+        <f>B35</f>
+        <v>61738</v>
+      </c>
+      <c r="I84">
+        <f>H35</f>
+        <v>28832</v>
+      </c>
+      <c r="J84">
+        <f>B48</f>
+        <v>39992</v>
+      </c>
+      <c r="K84">
+        <f>H48</f>
+        <v>29196</v>
+      </c>
+      <c r="L84">
+        <f>N48</f>
+        <v>40547</v>
+      </c>
+      <c r="M84">
+        <f>T48</f>
+        <v>28110</v>
+      </c>
+      <c r="O84">
+        <f>C9</f>
+        <v>772</v>
+      </c>
+      <c r="P84">
+        <f>I9</f>
+        <v>16291</v>
+      </c>
+      <c r="Q84">
+        <f>O9</f>
+        <v>322</v>
+      </c>
+      <c r="R84">
+        <f>C22</f>
+        <v>907</v>
+      </c>
+      <c r="S84">
+        <f>I22</f>
+        <v>2930</v>
+      </c>
+      <c r="T84">
+        <f>O22</f>
+        <v>779</v>
+      </c>
+      <c r="U84">
+        <f>C35</f>
+        <v>15526</v>
+      </c>
+      <c r="V84">
+        <f>I35</f>
+        <v>1413</v>
+      </c>
+      <c r="W84">
+        <f>C48</f>
+        <v>6989</v>
+      </c>
+      <c r="X84">
+        <f>I48</f>
+        <v>1150</v>
+      </c>
+      <c r="Y84">
+        <f>O48</f>
+        <v>7877</v>
+      </c>
+      <c r="Z84">
+        <f>U48</f>
+        <v>8436</v>
+      </c>
+      <c r="AB84">
+        <f>D9</f>
+        <v>179</v>
+      </c>
+      <c r="AC84">
+        <f>J9</f>
+        <v>9325</v>
+      </c>
+      <c r="AD84">
+        <f>P9</f>
+        <v>129</v>
+      </c>
+      <c r="AE84">
+        <f>D22</f>
+        <v>348</v>
+      </c>
+      <c r="AF84">
+        <f>J22</f>
+        <v>1678</v>
+      </c>
+      <c r="AG84">
+        <f>P22</f>
+        <v>403</v>
+      </c>
+      <c r="AH84">
+        <f>D35</f>
+        <v>6712</v>
+      </c>
+      <c r="AI84">
+        <f>J35</f>
+        <v>622</v>
+      </c>
+      <c r="AJ84">
+        <f>D48</f>
+        <v>3039</v>
+      </c>
+      <c r="AK84">
+        <f>J48</f>
+        <v>544</v>
+      </c>
+      <c r="AL84">
+        <f>P48</f>
+        <v>5554</v>
+      </c>
+      <c r="AM84">
+        <f>V48</f>
+        <v>4492</v>
+      </c>
+      <c r="AO84">
+        <f>E9</f>
+        <v>0</v>
+      </c>
+      <c r="AP84">
+        <f>K9</f>
+        <v>27136</v>
+      </c>
+      <c r="AQ84">
+        <f>Q9</f>
+        <v>0</v>
+      </c>
+      <c r="AR84">
+        <f>E22</f>
+        <v>0</v>
+      </c>
+      <c r="AS84">
+        <f>K22</f>
+        <v>4595</v>
+      </c>
+      <c r="AT84">
+        <f>Q22</f>
+        <v>1271</v>
+      </c>
+      <c r="AU84">
+        <f>E35</f>
+        <v>22798</v>
+      </c>
+      <c r="AV84">
+        <f>K35</f>
+        <v>2048</v>
+      </c>
+      <c r="AW84">
+        <f>E48</f>
+        <v>10764</v>
+      </c>
+      <c r="AX84">
+        <f>K48</f>
+        <v>0</v>
+      </c>
+      <c r="AY84">
+        <f>P48</f>
+        <v>5554</v>
+      </c>
+      <c r="AZ84">
+        <f>W48</f>
+        <v>12950</v>
+      </c>
+    </row>
+    <row r="85" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85">
+        <f>B10</f>
+        <v>103148</v>
+      </c>
+      <c r="C85">
+        <f>H10</f>
+        <v>526030</v>
+      </c>
+      <c r="D85">
+        <f>N10</f>
+        <v>715655</v>
+      </c>
+      <c r="E85">
+        <f>B23</f>
+        <v>276435</v>
+      </c>
+      <c r="F85">
+        <f>H23</f>
+        <v>192960</v>
+      </c>
+      <c r="G85">
+        <f>N23</f>
+        <v>381195</v>
+      </c>
+      <c r="H85">
+        <f>B36</f>
+        <v>485562</v>
+      </c>
+      <c r="I85">
+        <f>H36</f>
+        <v>310965</v>
+      </c>
+      <c r="J85">
+        <f>B49</f>
+        <v>231899</v>
+      </c>
+      <c r="K85">
+        <f>H49</f>
+        <v>476392</v>
+      </c>
+      <c r="L85">
+        <f>N49</f>
+        <v>622139</v>
+      </c>
+      <c r="M85">
+        <f>T49</f>
+        <v>446516</v>
+      </c>
+      <c r="O85">
+        <f>C10</f>
+        <v>9454</v>
+      </c>
+      <c r="P85">
+        <f>I10</f>
+        <v>239309</v>
+      </c>
+      <c r="Q85">
+        <f>O10</f>
+        <v>5373</v>
+      </c>
+      <c r="R85">
+        <f>C23</f>
+        <v>16708</v>
+      </c>
+      <c r="S85">
+        <f>I23</f>
+        <v>42632</v>
+      </c>
+      <c r="T85">
+        <f>O23</f>
+        <v>16663</v>
+      </c>
+      <c r="U85">
+        <f>C36</f>
+        <v>254769</v>
+      </c>
+      <c r="V85">
+        <f>I36</f>
+        <v>14816</v>
+      </c>
+      <c r="W85">
+        <f>C49</f>
+        <v>118163</v>
+      </c>
+      <c r="X85">
+        <f>I49</f>
+        <v>13848</v>
+      </c>
+      <c r="Y85">
+        <f>O49</f>
+        <v>82957</v>
+      </c>
+      <c r="Z85">
+        <f>U49</f>
+        <v>99341</v>
+      </c>
+      <c r="AB85">
+        <f>D10</f>
+        <v>47</v>
+      </c>
+      <c r="AC85">
+        <f>J10</f>
+        <v>2683</v>
+      </c>
+      <c r="AD85">
+        <f>P10</f>
+        <v>32</v>
+      </c>
+      <c r="AE85">
+        <f>D23</f>
+        <v>200</v>
+      </c>
+      <c r="AF85">
+        <f>J23</f>
+        <v>408</v>
+      </c>
+      <c r="AG85">
+        <f>P23</f>
+        <v>254</v>
+      </c>
+      <c r="AH85">
+        <f>D36</f>
+        <v>1079</v>
+      </c>
+      <c r="AI85">
+        <f>J36</f>
+        <v>122</v>
+      </c>
+      <c r="AJ85">
+        <f>D49</f>
+        <v>524</v>
+      </c>
+      <c r="AK85">
+        <f>J49</f>
+        <v>174</v>
+      </c>
+      <c r="AL85">
+        <f>P49</f>
+        <v>828</v>
+      </c>
+      <c r="AM85">
+        <f>V49</f>
+        <v>702</v>
+      </c>
+      <c r="AO85">
+        <f>E10</f>
+        <v>0</v>
+      </c>
+      <c r="AP85">
+        <f>K10</f>
+        <v>0</v>
+      </c>
+      <c r="AQ85">
+        <f>Q10</f>
+        <v>0</v>
+      </c>
+      <c r="AR85">
+        <f>E23</f>
+        <v>0</v>
+      </c>
+      <c r="AS85">
+        <f>K23</f>
+        <v>0</v>
+      </c>
+      <c r="AT85">
+        <f>Q23</f>
+        <v>0</v>
+      </c>
+      <c r="AU85">
+        <f>E36</f>
+        <v>0</v>
+      </c>
+      <c r="AV85">
+        <f>K36</f>
+        <v>0</v>
+      </c>
+      <c r="AW85">
+        <f>E49</f>
+        <v>0</v>
+      </c>
+      <c r="AX85">
+        <f>K49</f>
+        <v>0</v>
+      </c>
+      <c r="AY85">
+        <f>P49</f>
+        <v>828</v>
+      </c>
+      <c r="AZ85">
+        <f>W49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="88" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L65" sqref="L65:L72"/>
     </sheetView>
   </sheetViews>

--- a/prototypes/post-run-analysis/GA/GA_final_table.xlsx
+++ b/prototypes/post-run-analysis/GA/GA_final_table.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9155A3-2982-498F-994C-6006F8738902}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E13B91-D0A0-4C2A-84ED-EF0C972F3AA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="9300" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kneaddata" sheetId="2" r:id="rId1"/>
@@ -268,37 +268,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -2277,7 +2247,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:gapWidth val="22"/>
         <c:overlap val="100"/>
         <c:axId val="350170208"/>
         <c:axId val="444227952"/>
@@ -2287,45 +2257,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="444227952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -2338,7 +2275,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2355,36 +2292,9 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="350170208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -2398,7 +2308,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2412,7 +2322,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3021,16 +2931,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>99389</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>148257</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>251789</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>9711</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>204106</xdr:colOff>
-      <xdr:row>125</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>96733</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>188025</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3323,8 +3233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B5248C-FBAB-4AA2-A1FF-4AC22F3E3EB6}">
   <dimension ref="A1:AZ115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="U55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AI55" sqref="AI55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5464,195 +5374,195 @@
         <v>5</v>
       </c>
       <c r="B78">
-        <f>B3</f>
+        <f t="shared" ref="B78:B85" si="3">B3</f>
         <v>67159</v>
       </c>
       <c r="C78">
-        <f>H3</f>
+        <f t="shared" ref="C78:C85" si="4">H3</f>
         <v>119289</v>
       </c>
       <c r="D78">
-        <f>N3</f>
+        <f t="shared" ref="D78:D85" si="5">N3</f>
         <v>86641</v>
       </c>
       <c r="E78">
-        <f>B16</f>
+        <f t="shared" ref="E78:E85" si="6">B16</f>
         <v>165458</v>
       </c>
       <c r="F78">
-        <f>H16</f>
+        <f t="shared" ref="F78:F85" si="7">H16</f>
         <v>84487</v>
       </c>
       <c r="G78">
-        <f>N16</f>
+        <f t="shared" ref="G78:G85" si="8">N16</f>
         <v>53784</v>
       </c>
       <c r="H78">
-        <f>B29</f>
+        <f t="shared" ref="H78:H85" si="9">B29</f>
         <v>125095</v>
       </c>
       <c r="I78">
-        <f>H29</f>
+        <f t="shared" ref="I78:I85" si="10">H29</f>
         <v>98656</v>
       </c>
       <c r="J78">
-        <f>B42</f>
+        <f t="shared" ref="J78:J85" si="11">B42</f>
         <v>132896</v>
       </c>
       <c r="K78">
-        <f>H42</f>
+        <f t="shared" ref="K78:K85" si="12">H42</f>
         <v>199935</v>
       </c>
       <c r="L78">
-        <f>N42</f>
+        <f t="shared" ref="L78:L85" si="13">N42</f>
         <v>207030</v>
       </c>
       <c r="M78">
-        <f>T42</f>
+        <f t="shared" ref="M78:M85" si="14">T42</f>
         <v>94117</v>
       </c>
       <c r="O78">
-        <f>C3</f>
+        <f t="shared" ref="O78:O85" si="15">C3</f>
         <v>4285</v>
       </c>
       <c r="P78">
-        <f>I3</f>
+        <f t="shared" ref="P78:P85" si="16">I3</f>
         <v>41209</v>
       </c>
       <c r="Q78">
-        <f>O3</f>
+        <f t="shared" ref="Q78:Q85" si="17">O3</f>
         <v>2202</v>
       </c>
       <c r="R78">
-        <f>C16</f>
+        <f t="shared" ref="R78:R85" si="18">C16</f>
         <v>13398</v>
       </c>
       <c r="S78">
-        <f>I16</f>
+        <f t="shared" ref="S78:S85" si="19">I16</f>
         <v>14325</v>
       </c>
       <c r="T78">
-        <f>O16</f>
+        <f t="shared" ref="T78:T85" si="20">O16</f>
         <v>8418</v>
       </c>
       <c r="U78">
-        <f>C29</f>
+        <f t="shared" ref="U78:U85" si="21">C29</f>
         <v>61813</v>
       </c>
       <c r="V78">
-        <f>I29</f>
+        <f t="shared" ref="V78:V85" si="22">I29</f>
         <v>5538</v>
       </c>
       <c r="W78">
-        <f>C42</f>
+        <f t="shared" ref="W78:W85" si="23">C42</f>
         <v>68551</v>
       </c>
       <c r="X78">
-        <f>I42</f>
+        <f t="shared" ref="X78:X85" si="24">I42</f>
         <v>10660</v>
       </c>
       <c r="Y78">
-        <f>O42</f>
+        <f t="shared" ref="Y78:Y85" si="25">O42</f>
         <v>37831</v>
       </c>
       <c r="Z78">
-        <f>U42</f>
+        <f t="shared" ref="Z78:Z85" si="26">U42</f>
         <v>50279</v>
       </c>
       <c r="AB78">
-        <f>D3</f>
+        <f t="shared" ref="AB78:AB85" si="27">D3</f>
         <v>878</v>
       </c>
       <c r="AC78">
-        <f>J3</f>
+        <f t="shared" ref="AC78:AC85" si="28">J3</f>
         <v>20272</v>
       </c>
       <c r="AD78">
-        <f>P3</f>
+        <f t="shared" ref="AD78:AD85" si="29">P3</f>
         <v>895</v>
       </c>
       <c r="AE78">
-        <f>D16</f>
+        <f t="shared" ref="AE78:AE85" si="30">D16</f>
         <v>3657</v>
       </c>
       <c r="AF78">
-        <f>J16</f>
+        <f t="shared" ref="AF78:AF85" si="31">J16</f>
         <v>6767</v>
       </c>
       <c r="AG78">
-        <f>P16</f>
+        <f t="shared" ref="AG78:AG85" si="32">P16</f>
         <v>3833</v>
       </c>
       <c r="AH78">
-        <f>D29</f>
+        <f t="shared" ref="AH78:AH85" si="33">D29</f>
         <v>22695</v>
       </c>
       <c r="AI78">
-        <f>J29</f>
+        <f t="shared" ref="AI78:AI85" si="34">J29</f>
         <v>2365</v>
       </c>
       <c r="AJ78">
-        <f>D42</f>
+        <f t="shared" ref="AJ78:AJ85" si="35">D42</f>
         <v>27185</v>
       </c>
       <c r="AK78">
-        <f>J42</f>
+        <f t="shared" ref="AK78:AK85" si="36">J42</f>
         <v>5824</v>
       </c>
       <c r="AL78">
-        <f>P42</f>
+        <f t="shared" ref="AL78:AL85" si="37">P42</f>
         <v>18524</v>
       </c>
       <c r="AM78">
-        <f>V42</f>
+        <f t="shared" ref="AM78:AM85" si="38">V42</f>
         <v>22356</v>
       </c>
       <c r="AO78">
-        <f>E3</f>
+        <f t="shared" ref="AO78:AO85" si="39">E3</f>
         <v>0</v>
       </c>
       <c r="AP78">
-        <f>K3</f>
+        <f t="shared" ref="AP78:AP85" si="40">K3</f>
         <v>67635</v>
       </c>
       <c r="AQ78">
-        <f>Q3</f>
+        <f t="shared" ref="AQ78:AQ85" si="41">Q3</f>
         <v>0</v>
       </c>
       <c r="AR78">
-        <f>E16</f>
+        <f t="shared" ref="AR78:AR85" si="42">E16</f>
         <v>0</v>
       </c>
       <c r="AS78">
-        <f>K16</f>
+        <f t="shared" ref="AS78:AS85" si="43">K16</f>
         <v>0</v>
       </c>
       <c r="AT78">
-        <f>Q16</f>
+        <f t="shared" ref="AT78:AT85" si="44">Q16</f>
         <v>0</v>
       </c>
       <c r="AU78">
-        <f>E29</f>
+        <f t="shared" ref="AU78:AU85" si="45">E29</f>
         <v>83495</v>
       </c>
       <c r="AV78">
-        <f>K29</f>
+        <f t="shared" ref="AV78:AV85" si="46">K29</f>
         <v>0</v>
       </c>
       <c r="AW78">
-        <f>E42</f>
+        <f t="shared" ref="AW78:AW85" si="47">E42</f>
         <v>96668</v>
       </c>
       <c r="AX78">
-        <f>K42</f>
+        <f t="shared" ref="AX78:AX85" si="48">K42</f>
         <v>0</v>
       </c>
       <c r="AY78">
-        <f>P42</f>
+        <f t="shared" ref="AY78:AY85" si="49">P42</f>
         <v>18524</v>
       </c>
       <c r="AZ78">
-        <f>W42</f>
+        <f t="shared" ref="AZ78:AZ85" si="50">W42</f>
         <v>73086</v>
       </c>
     </row>
@@ -5661,195 +5571,195 @@
         <v>6</v>
       </c>
       <c r="B79">
-        <f>B4</f>
+        <f t="shared" si="3"/>
         <v>3137</v>
       </c>
       <c r="C79">
-        <f>H4</f>
+        <f t="shared" si="4"/>
         <v>8182</v>
       </c>
       <c r="D79">
-        <f>N4</f>
+        <f t="shared" si="5"/>
         <v>28214</v>
       </c>
       <c r="E79">
-        <f>B17</f>
+        <f t="shared" si="6"/>
         <v>14569</v>
       </c>
       <c r="F79">
-        <f>H17</f>
+        <f t="shared" si="7"/>
         <v>8748</v>
       </c>
       <c r="G79">
-        <f>N17</f>
+        <f t="shared" si="8"/>
         <v>12767</v>
       </c>
       <c r="H79">
-        <f>B30</f>
+        <f t="shared" si="9"/>
         <v>10774</v>
       </c>
       <c r="I79">
-        <f>H30</f>
+        <f t="shared" si="10"/>
         <v>15237</v>
       </c>
       <c r="J79">
-        <f>B43</f>
+        <f t="shared" si="11"/>
         <v>5095</v>
       </c>
       <c r="K79">
-        <f>H43</f>
+        <f t="shared" si="12"/>
         <v>16504</v>
       </c>
       <c r="L79">
-        <f>N43</f>
+        <f t="shared" si="13"/>
         <v>28030</v>
       </c>
       <c r="M79">
-        <f>T43</f>
+        <f t="shared" si="14"/>
         <v>9197</v>
       </c>
       <c r="O79">
-        <f>C4</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P79">
-        <f>I4</f>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="Q79">
-        <f>O4</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R79">
-        <f>C17</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="S79">
-        <f>I17</f>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="T79">
-        <f>O17</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="U79">
-        <f>C30</f>
+        <f t="shared" si="21"/>
         <v>50</v>
       </c>
       <c r="V79">
-        <f>I30</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="W79">
-        <f>C43</f>
+        <f t="shared" si="23"/>
         <v>25</v>
       </c>
       <c r="X79">
-        <f>I43</f>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="Y79">
-        <f>O43</f>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="Z79">
-        <f>U43</f>
+        <f t="shared" si="26"/>
         <v>21</v>
       </c>
       <c r="AB79">
-        <f>D4</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AC79">
-        <f>J4</f>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="AD79">
-        <f>P4</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AE79">
-        <f>D17</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AF79">
-        <f>J17</f>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="AG79">
-        <f>P17</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AH79">
-        <f>D30</f>
+        <f t="shared" si="33"/>
         <v>25</v>
       </c>
       <c r="AI79">
-        <f>J30</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AJ79">
-        <f>D43</f>
+        <f t="shared" si="35"/>
         <v>27</v>
       </c>
       <c r="AK79">
-        <f>J43</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AL79">
-        <f>P43</f>
+        <f t="shared" si="37"/>
         <v>47</v>
       </c>
       <c r="AM79">
-        <f>V43</f>
+        <f t="shared" si="38"/>
         <v>17</v>
       </c>
       <c r="AO79">
-        <f>E4</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AP79">
-        <f>K4</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AQ79">
-        <f>Q4</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AR79">
-        <f>E17</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AS79">
-        <f>K17</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AT79">
-        <f>Q17</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AU79">
-        <f>E30</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AV79">
-        <f>K30</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AW79">
-        <f>E43</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AX79">
-        <f>K43</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AY79">
-        <f>P43</f>
+        <f t="shared" si="49"/>
         <v>47</v>
       </c>
       <c r="AZ79">
-        <f>W43</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
     </row>
@@ -5858,195 +5768,195 @@
         <v>7</v>
       </c>
       <c r="B80">
-        <f>B5</f>
+        <f t="shared" si="3"/>
         <v>1505</v>
       </c>
       <c r="C80">
-        <f>H5</f>
+        <f t="shared" si="4"/>
         <v>978</v>
       </c>
       <c r="D80">
-        <f>N5</f>
+        <f t="shared" si="5"/>
         <v>9954</v>
       </c>
       <c r="E80">
-        <f>B18</f>
+        <f t="shared" si="6"/>
         <v>6547</v>
       </c>
       <c r="F80">
-        <f>H18</f>
+        <f t="shared" si="7"/>
         <v>684</v>
       </c>
       <c r="G80">
-        <f>N18</f>
+        <f t="shared" si="8"/>
         <v>4672</v>
       </c>
       <c r="H80">
-        <f>B31</f>
+        <f t="shared" si="9"/>
         <v>5309</v>
       </c>
       <c r="I80">
-        <f>H31</f>
+        <f t="shared" si="10"/>
         <v>8241</v>
       </c>
       <c r="J80">
-        <f>B44</f>
+        <f t="shared" si="11"/>
         <v>2373</v>
       </c>
       <c r="K80">
-        <f>H44</f>
+        <f t="shared" si="12"/>
         <v>7935</v>
       </c>
       <c r="L80">
-        <f>N44</f>
+        <f t="shared" si="13"/>
         <v>2681</v>
       </c>
       <c r="M80">
-        <f>T44</f>
+        <f t="shared" si="14"/>
         <v>3761</v>
       </c>
       <c r="O80">
-        <f>C5</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P80">
-        <f>I5</f>
+        <f t="shared" si="16"/>
         <v>37</v>
       </c>
       <c r="Q80">
-        <f>O5</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R80">
-        <f>C18</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="S80">
-        <f>I18</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="T80">
-        <f>O18</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="U80">
-        <f>C31</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="V80">
-        <f>I31</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="W80">
-        <f>C44</f>
+        <f t="shared" si="23"/>
         <v>56</v>
       </c>
       <c r="X80">
-        <f>I44</f>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="Y80">
-        <f>O44</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Z80">
-        <f>U44</f>
+        <f t="shared" si="26"/>
         <v>25</v>
       </c>
       <c r="AB80">
-        <f>D5</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AC80">
-        <f>J5</f>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="AD80">
-        <f>P5</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AE80">
-        <f>D18</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AF80">
-        <f>J18</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AG80">
-        <f>P18</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AH80">
-        <f>D31</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AI80">
-        <f>J31</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AJ80">
-        <f>D44</f>
+        <f t="shared" si="35"/>
         <v>51</v>
       </c>
       <c r="AK80">
-        <f>J44</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AL80">
-        <f>P44</f>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
       <c r="AM80">
-        <f>V44</f>
+        <f t="shared" si="38"/>
         <v>28</v>
       </c>
       <c r="AO80">
-        <f>E5</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AP80">
-        <f>K5</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AQ80">
-        <f>Q5</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AR80">
-        <f>E18</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AS80">
-        <f>K18</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AT80">
-        <f>Q18</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AU80">
-        <f>E31</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AV80">
-        <f>K31</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AW80">
-        <f>E44</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AX80">
-        <f>K44</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AY80">
-        <f>P44</f>
+        <f t="shared" si="49"/>
         <v>2</v>
       </c>
       <c r="AZ80">
-        <f>W44</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
     </row>
@@ -6055,195 +5965,195 @@
         <v>8</v>
       </c>
       <c r="B81">
-        <f>B6</f>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="C81">
-        <f>H6</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="D81">
-        <f>N6</f>
+        <f t="shared" si="5"/>
         <v>252</v>
       </c>
       <c r="E81">
-        <f>B19</f>
+        <f t="shared" si="6"/>
         <v>92</v>
       </c>
       <c r="F81">
-        <f>H19</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="G81">
-        <f>N19</f>
+        <f t="shared" si="8"/>
         <v>113</v>
       </c>
       <c r="H81">
-        <f>B32</f>
+        <f t="shared" si="9"/>
         <v>68</v>
       </c>
       <c r="I81">
-        <f>H32</f>
+        <f t="shared" si="10"/>
         <v>74</v>
       </c>
       <c r="J81">
-        <f>B45</f>
+        <f t="shared" si="11"/>
         <v>50</v>
       </c>
       <c r="K81">
-        <f>H45</f>
+        <f t="shared" si="12"/>
         <v>53</v>
       </c>
       <c r="L81">
-        <f>N45</f>
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="M81">
-        <f>T45</f>
+        <f t="shared" si="14"/>
         <v>52</v>
       </c>
       <c r="O81">
-        <f>C6</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P81">
-        <f>I6</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q81">
-        <f>O6</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R81">
-        <f>C19</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="S81">
-        <f>I19</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="T81">
-        <f>O19</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="U81">
-        <f>C32</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="V81">
-        <f>I32</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="W81">
-        <f>C45</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="X81">
-        <f>I45</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Y81">
-        <f>O45</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Z81">
-        <f>U45</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AB81">
-        <f>D6</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AC81">
-        <f>J6</f>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="AD81">
-        <f>P6</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AE81">
-        <f>D19</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AF81">
-        <f>J19</f>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="AG81">
-        <f>P19</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AH81">
-        <f>D32</f>
+        <f t="shared" si="33"/>
         <v>45</v>
       </c>
       <c r="AI81">
-        <f>J32</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="AJ81">
-        <f>D45</f>
+        <f t="shared" si="35"/>
         <v>14</v>
       </c>
       <c r="AK81">
-        <f>J45</f>
+        <f t="shared" si="36"/>
         <v>24</v>
       </c>
       <c r="AL81">
-        <f>P45</f>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AM81">
-        <f>V45</f>
+        <f t="shared" si="38"/>
         <v>25</v>
       </c>
       <c r="AO81">
-        <f>E6</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AP81">
-        <f>K6</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AQ81">
-        <f>Q6</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AR81">
-        <f>E19</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AS81">
-        <f>K19</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AT81">
-        <f>Q19</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AU81">
-        <f>E32</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AV81">
-        <f>K32</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AW81">
-        <f>E45</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AX81">
-        <f>K45</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AY81">
-        <f>P45</f>
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
       <c r="AZ81">
-        <f>W45</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
     </row>
@@ -6252,195 +6162,195 @@
         <v>9</v>
       </c>
       <c r="B82">
-        <f>B7</f>
+        <f t="shared" si="3"/>
         <v>78</v>
       </c>
       <c r="C82">
-        <f>H7</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D82">
-        <f>N7</f>
+        <f t="shared" si="5"/>
         <v>3074</v>
       </c>
       <c r="E82">
-        <f>B20</f>
+        <f t="shared" si="6"/>
         <v>1371</v>
       </c>
       <c r="F82">
-        <f>H20</f>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="G82">
-        <f>N20</f>
+        <f t="shared" si="8"/>
         <v>1465</v>
       </c>
       <c r="H82">
-        <f>B33</f>
+        <f t="shared" si="9"/>
         <v>843</v>
       </c>
       <c r="I82">
-        <f>H33</f>
+        <f t="shared" si="10"/>
         <v>972</v>
       </c>
       <c r="J82">
-        <f>B46</f>
+        <f t="shared" si="11"/>
         <v>354</v>
       </c>
       <c r="K82">
-        <f>H46</f>
+        <f t="shared" si="12"/>
         <v>767</v>
       </c>
       <c r="L82">
-        <f>N46</f>
+        <f t="shared" si="13"/>
         <v>394</v>
       </c>
       <c r="M82">
-        <f>T46</f>
+        <f t="shared" si="14"/>
         <v>484</v>
       </c>
       <c r="O82">
-        <f>C7</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P82">
-        <f>I7</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q82">
-        <f>O7</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R82">
-        <f>C20</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="S82">
-        <f>I20</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="T82">
-        <f>O20</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="U82">
-        <f>C33</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="V82">
-        <f>I33</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="W82">
-        <f>C46</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="X82">
-        <f>I46</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Y82">
-        <f>O46</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Z82">
-        <f>U46</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AB82">
-        <f>D7</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="AC82">
-        <f>J7</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD82">
-        <f>P7</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AE82">
-        <f>D20</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AF82">
-        <f>J20</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="AG82">
-        <f>P20</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AH82">
-        <f>D33</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="AI82">
-        <f>J33</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AJ82">
-        <f>D46</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AK82">
-        <f>J46</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AL82">
-        <f>P46</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AM82">
-        <f>V46</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AO82">
-        <f>E7</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AP82">
-        <f>K7</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AQ82">
-        <f>Q7</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AR82">
-        <f>E20</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AS82">
-        <f>K20</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AT82">
-        <f>Q20</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AU82">
-        <f>E33</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AV82">
-        <f>K33</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AW82">
-        <f>E46</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AX82">
-        <f>K46</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AY82">
-        <f>P46</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AZ82">
-        <f>W46</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
     </row>
@@ -6449,195 +6359,195 @@
         <v>0</v>
       </c>
       <c r="B83">
-        <f>B8</f>
+        <f t="shared" si="3"/>
         <v>1611</v>
       </c>
       <c r="C83">
-        <f>H8</f>
+        <f t="shared" si="4"/>
         <v>4897</v>
       </c>
       <c r="D83">
-        <f>N8</f>
+        <f t="shared" si="5"/>
         <v>15604</v>
       </c>
       <c r="E83">
-        <f>B21</f>
+        <f t="shared" si="6"/>
         <v>5025</v>
       </c>
       <c r="F83">
-        <f>H21</f>
+        <f t="shared" si="7"/>
         <v>2634</v>
       </c>
       <c r="G83">
-        <f>N21</f>
+        <f t="shared" si="8"/>
         <v>11815</v>
       </c>
       <c r="H83">
-        <f>B34</f>
+        <f t="shared" si="9"/>
         <v>3676</v>
       </c>
       <c r="I83">
-        <f>H34</f>
+        <f t="shared" si="10"/>
         <v>9489</v>
       </c>
       <c r="J83">
-        <f>B47</f>
+        <f t="shared" si="11"/>
         <v>2488</v>
       </c>
       <c r="K83">
-        <f>H47</f>
+        <f t="shared" si="12"/>
         <v>9772</v>
       </c>
       <c r="L83">
-        <f>N47</f>
+        <f t="shared" si="13"/>
         <v>12188</v>
       </c>
       <c r="M83">
-        <f>T47</f>
+        <f t="shared" si="14"/>
         <v>10260</v>
       </c>
       <c r="O83">
-        <f>C8</f>
+        <f t="shared" si="15"/>
         <v>96</v>
       </c>
       <c r="P83">
-        <f>I8</f>
+        <f t="shared" si="16"/>
         <v>2810</v>
       </c>
       <c r="Q83">
-        <f>O8</f>
+        <f t="shared" si="17"/>
         <v>356</v>
       </c>
       <c r="R83">
-        <f>C21</f>
+        <f t="shared" si="18"/>
         <v>392</v>
       </c>
       <c r="S83">
-        <f>I21</f>
+        <f t="shared" si="19"/>
         <v>1233</v>
       </c>
       <c r="T83">
-        <f>O21</f>
+        <f t="shared" si="20"/>
         <v>1080</v>
       </c>
       <c r="U83">
-        <f>C34</f>
+        <f t="shared" si="21"/>
         <v>2175</v>
       </c>
       <c r="V83">
-        <f>I34</f>
+        <f t="shared" si="22"/>
         <v>551</v>
       </c>
       <c r="W83">
-        <f>C47</f>
+        <f t="shared" si="23"/>
         <v>911</v>
       </c>
       <c r="X83">
-        <f>I47</f>
+        <f t="shared" si="24"/>
         <v>420</v>
       </c>
       <c r="Y83">
-        <f>O47</f>
+        <f t="shared" si="25"/>
         <v>4948</v>
       </c>
       <c r="Z83">
-        <f>U47</f>
+        <f t="shared" si="26"/>
         <v>2076</v>
       </c>
       <c r="AB83">
-        <f>D8</f>
+        <f t="shared" si="27"/>
         <v>16</v>
       </c>
       <c r="AC83">
-        <f>J8</f>
+        <f t="shared" si="28"/>
         <v>1485</v>
       </c>
       <c r="AD83">
-        <f>P8</f>
+        <f t="shared" si="29"/>
         <v>174</v>
       </c>
       <c r="AE83">
-        <f>D21</f>
+        <f t="shared" si="30"/>
         <v>125</v>
       </c>
       <c r="AF83">
-        <f>J21</f>
+        <f t="shared" si="31"/>
         <v>595</v>
       </c>
       <c r="AG83">
-        <f>P21</f>
+        <f t="shared" si="32"/>
         <v>490</v>
       </c>
       <c r="AH83">
-        <f>D34</f>
+        <f t="shared" si="33"/>
         <v>763</v>
       </c>
       <c r="AI83">
-        <f>J34</f>
+        <f t="shared" si="34"/>
         <v>237</v>
       </c>
       <c r="AJ83">
-        <f>D47</f>
+        <f t="shared" si="35"/>
         <v>320</v>
       </c>
       <c r="AK83">
-        <f>J47</f>
+        <f t="shared" si="36"/>
         <v>121</v>
       </c>
       <c r="AL83">
-        <f>P47</f>
+        <f t="shared" si="37"/>
         <v>2535</v>
       </c>
       <c r="AM83">
-        <f>V47</f>
+        <f t="shared" si="38"/>
         <v>902</v>
       </c>
       <c r="AO83">
-        <f>E8</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AP83">
-        <f>K8</f>
+        <f t="shared" si="40"/>
         <v>4497</v>
       </c>
       <c r="AQ83">
-        <f>Q8</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AR83">
-        <f>E21</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AS83">
-        <f>K21</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AT83">
-        <f>Q21</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AU83">
-        <f>E34</f>
+        <f t="shared" si="45"/>
         <v>3029</v>
       </c>
       <c r="AV83">
-        <f>K34</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AW83">
-        <f>E47</f>
+        <f t="shared" si="47"/>
         <v>1301</v>
       </c>
       <c r="AX83">
-        <f>K47</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AY83">
-        <f>P47</f>
+        <f t="shared" si="49"/>
         <v>2535</v>
       </c>
       <c r="AZ83">
-        <f>W47</f>
+        <f t="shared" si="50"/>
         <v>3265</v>
       </c>
     </row>
@@ -6646,195 +6556,195 @@
         <v>10</v>
       </c>
       <c r="B84">
-        <f>B9</f>
+        <f t="shared" si="3"/>
         <v>11043</v>
       </c>
       <c r="C84">
-        <f>H9</f>
+        <f t="shared" si="4"/>
         <v>27199</v>
       </c>
       <c r="D84">
-        <f>N9</f>
+        <f t="shared" si="5"/>
         <v>10511</v>
       </c>
       <c r="E84">
-        <f>B22</f>
+        <f t="shared" si="6"/>
         <v>25304</v>
       </c>
       <c r="F84">
-        <f>H22</f>
+        <f t="shared" si="7"/>
         <v>11612</v>
       </c>
       <c r="G84">
-        <f>N22</f>
+        <f t="shared" si="8"/>
         <v>8383</v>
       </c>
       <c r="H84">
-        <f>B35</f>
+        <f t="shared" si="9"/>
         <v>61738</v>
       </c>
       <c r="I84">
-        <f>H35</f>
+        <f t="shared" si="10"/>
         <v>28832</v>
       </c>
       <c r="J84">
-        <f>B48</f>
+        <f t="shared" si="11"/>
         <v>39992</v>
       </c>
       <c r="K84">
-        <f>H48</f>
+        <f t="shared" si="12"/>
         <v>29196</v>
       </c>
       <c r="L84">
-        <f>N48</f>
+        <f t="shared" si="13"/>
         <v>40547</v>
       </c>
       <c r="M84">
-        <f>T48</f>
+        <f t="shared" si="14"/>
         <v>28110</v>
       </c>
       <c r="O84">
-        <f>C9</f>
+        <f t="shared" si="15"/>
         <v>772</v>
       </c>
       <c r="P84">
-        <f>I9</f>
+        <f t="shared" si="16"/>
         <v>16291</v>
       </c>
       <c r="Q84">
-        <f>O9</f>
+        <f t="shared" si="17"/>
         <v>322</v>
       </c>
       <c r="R84">
-        <f>C22</f>
+        <f t="shared" si="18"/>
         <v>907</v>
       </c>
       <c r="S84">
-        <f>I22</f>
+        <f t="shared" si="19"/>
         <v>2930</v>
       </c>
       <c r="T84">
-        <f>O22</f>
+        <f t="shared" si="20"/>
         <v>779</v>
       </c>
       <c r="U84">
-        <f>C35</f>
+        <f t="shared" si="21"/>
         <v>15526</v>
       </c>
       <c r="V84">
-        <f>I35</f>
+        <f t="shared" si="22"/>
         <v>1413</v>
       </c>
       <c r="W84">
-        <f>C48</f>
+        <f t="shared" si="23"/>
         <v>6989</v>
       </c>
       <c r="X84">
-        <f>I48</f>
+        <f t="shared" si="24"/>
         <v>1150</v>
       </c>
       <c r="Y84">
-        <f>O48</f>
+        <f t="shared" si="25"/>
         <v>7877</v>
       </c>
       <c r="Z84">
-        <f>U48</f>
+        <f t="shared" si="26"/>
         <v>8436</v>
       </c>
       <c r="AB84">
-        <f>D9</f>
+        <f t="shared" si="27"/>
         <v>179</v>
       </c>
       <c r="AC84">
-        <f>J9</f>
+        <f t="shared" si="28"/>
         <v>9325</v>
       </c>
       <c r="AD84">
-        <f>P9</f>
+        <f t="shared" si="29"/>
         <v>129</v>
       </c>
       <c r="AE84">
-        <f>D22</f>
+        <f t="shared" si="30"/>
         <v>348</v>
       </c>
       <c r="AF84">
-        <f>J22</f>
+        <f t="shared" si="31"/>
         <v>1678</v>
       </c>
       <c r="AG84">
-        <f>P22</f>
+        <f t="shared" si="32"/>
         <v>403</v>
       </c>
       <c r="AH84">
-        <f>D35</f>
+        <f t="shared" si="33"/>
         <v>6712</v>
       </c>
       <c r="AI84">
-        <f>J35</f>
+        <f t="shared" si="34"/>
         <v>622</v>
       </c>
       <c r="AJ84">
-        <f>D48</f>
+        <f t="shared" si="35"/>
         <v>3039</v>
       </c>
       <c r="AK84">
-        <f>J48</f>
+        <f t="shared" si="36"/>
         <v>544</v>
       </c>
       <c r="AL84">
-        <f>P48</f>
+        <f t="shared" si="37"/>
         <v>5554</v>
       </c>
       <c r="AM84">
-        <f>V48</f>
+        <f t="shared" si="38"/>
         <v>4492</v>
       </c>
       <c r="AO84">
-        <f>E9</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AP84">
-        <f>K9</f>
+        <f t="shared" si="40"/>
         <v>27136</v>
       </c>
       <c r="AQ84">
-        <f>Q9</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AR84">
-        <f>E22</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AS84">
-        <f>K22</f>
+        <f t="shared" si="43"/>
         <v>4595</v>
       </c>
       <c r="AT84">
-        <f>Q22</f>
+        <f t="shared" si="44"/>
         <v>1271</v>
       </c>
       <c r="AU84">
-        <f>E35</f>
+        <f t="shared" si="45"/>
         <v>22798</v>
       </c>
       <c r="AV84">
-        <f>K35</f>
+        <f t="shared" si="46"/>
         <v>2048</v>
       </c>
       <c r="AW84">
-        <f>E48</f>
+        <f t="shared" si="47"/>
         <v>10764</v>
       </c>
       <c r="AX84">
-        <f>K48</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AY84">
-        <f>P48</f>
+        <f t="shared" si="49"/>
         <v>5554</v>
       </c>
       <c r="AZ84">
-        <f>W48</f>
+        <f t="shared" si="50"/>
         <v>12950</v>
       </c>
     </row>
@@ -6843,195 +6753,195 @@
         <v>11</v>
       </c>
       <c r="B85">
-        <f>B10</f>
+        <f t="shared" si="3"/>
         <v>103148</v>
       </c>
       <c r="C85">
-        <f>H10</f>
+        <f t="shared" si="4"/>
         <v>526030</v>
       </c>
       <c r="D85">
-        <f>N10</f>
+        <f t="shared" si="5"/>
         <v>715655</v>
       </c>
       <c r="E85">
-        <f>B23</f>
+        <f t="shared" si="6"/>
         <v>276435</v>
       </c>
       <c r="F85">
-        <f>H23</f>
+        <f t="shared" si="7"/>
         <v>192960</v>
       </c>
       <c r="G85">
-        <f>N23</f>
+        <f t="shared" si="8"/>
         <v>381195</v>
       </c>
       <c r="H85">
-        <f>B36</f>
+        <f t="shared" si="9"/>
         <v>485562</v>
       </c>
       <c r="I85">
-        <f>H36</f>
+        <f t="shared" si="10"/>
         <v>310965</v>
       </c>
       <c r="J85">
-        <f>B49</f>
+        <f t="shared" si="11"/>
         <v>231899</v>
       </c>
       <c r="K85">
-        <f>H49</f>
+        <f t="shared" si="12"/>
         <v>476392</v>
       </c>
       <c r="L85">
-        <f>N49</f>
+        <f t="shared" si="13"/>
         <v>622139</v>
       </c>
       <c r="M85">
-        <f>T49</f>
+        <f t="shared" si="14"/>
         <v>446516</v>
       </c>
       <c r="O85">
-        <f>C10</f>
+        <f t="shared" si="15"/>
         <v>9454</v>
       </c>
       <c r="P85">
-        <f>I10</f>
+        <f t="shared" si="16"/>
         <v>239309</v>
       </c>
       <c r="Q85">
-        <f>O10</f>
+        <f t="shared" si="17"/>
         <v>5373</v>
       </c>
       <c r="R85">
-        <f>C23</f>
+        <f t="shared" si="18"/>
         <v>16708</v>
       </c>
       <c r="S85">
-        <f>I23</f>
+        <f t="shared" si="19"/>
         <v>42632</v>
       </c>
       <c r="T85">
-        <f>O23</f>
+        <f t="shared" si="20"/>
         <v>16663</v>
       </c>
       <c r="U85">
-        <f>C36</f>
+        <f t="shared" si="21"/>
         <v>254769</v>
       </c>
       <c r="V85">
-        <f>I36</f>
+        <f t="shared" si="22"/>
         <v>14816</v>
       </c>
       <c r="W85">
-        <f>C49</f>
+        <f t="shared" si="23"/>
         <v>118163</v>
       </c>
       <c r="X85">
-        <f>I49</f>
+        <f t="shared" si="24"/>
         <v>13848</v>
       </c>
       <c r="Y85">
-        <f>O49</f>
+        <f t="shared" si="25"/>
         <v>82957</v>
       </c>
       <c r="Z85">
-        <f>U49</f>
+        <f t="shared" si="26"/>
         <v>99341</v>
       </c>
       <c r="AB85">
-        <f>D10</f>
+        <f t="shared" si="27"/>
         <v>47</v>
       </c>
       <c r="AC85">
-        <f>J10</f>
+        <f t="shared" si="28"/>
         <v>2683</v>
       </c>
       <c r="AD85">
-        <f>P10</f>
+        <f t="shared" si="29"/>
         <v>32</v>
       </c>
       <c r="AE85">
-        <f>D23</f>
+        <f t="shared" si="30"/>
         <v>200</v>
       </c>
       <c r="AF85">
-        <f>J23</f>
+        <f t="shared" si="31"/>
         <v>408</v>
       </c>
       <c r="AG85">
-        <f>P23</f>
+        <f t="shared" si="32"/>
         <v>254</v>
       </c>
       <c r="AH85">
-        <f>D36</f>
+        <f t="shared" si="33"/>
         <v>1079</v>
       </c>
       <c r="AI85">
-        <f>J36</f>
+        <f t="shared" si="34"/>
         <v>122</v>
       </c>
       <c r="AJ85">
-        <f>D49</f>
+        <f t="shared" si="35"/>
         <v>524</v>
       </c>
       <c r="AK85">
-        <f>J49</f>
+        <f t="shared" si="36"/>
         <v>174</v>
       </c>
       <c r="AL85">
-        <f>P49</f>
+        <f t="shared" si="37"/>
         <v>828</v>
       </c>
       <c r="AM85">
-        <f>V49</f>
+        <f t="shared" si="38"/>
         <v>702</v>
       </c>
       <c r="AO85">
-        <f>E10</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AP85">
-        <f>K10</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AQ85">
-        <f>Q10</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AR85">
-        <f>E23</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AS85">
-        <f>K23</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AT85">
-        <f>Q23</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AU85">
-        <f>E36</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AV85">
-        <f>K36</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AW85">
-        <f>E49</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AX85">
-        <f>K49</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AY85">
-        <f>P49</f>
+        <f t="shared" si="49"/>
         <v>828</v>
       </c>
       <c r="AZ85">
-        <f>W49</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
     </row>
